--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
   <si>
     <t>title</t>
   </si>
@@ -502,13 +502,159 @@
     <t>焊工类培训学校实习生</t>
   </si>
   <si>
+    <t>销售</t>
+  </si>
+  <si>
+    <t>4000/月</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>百度logo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>09月0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>负责公司指定销售业务</t>
+  </si>
+  <si>
+    <t>百度（纳斯达克：BIDU），全球最大的中文搜索引擎、最大的中文网站。1999年底,身在美国硅谷的李彦宏看到了中国互联网及中文搜索引擎服务的巨大发展潜力，抱着技术改变世界的梦想，他毅然辞掉硅谷的高薪工作，携搜索引擎专利技术，于 2000年1月1日在中关村创建了百度公司。
+“百度”二字,来自于八百年前南宋词人辛弃疾的一句词：众里寻他千百度。这句话描述了词人对理想的执着追求。
+百度拥有数万名研发工程师，这是中国乃至全球最为优秀的技术团队。这支队伍掌握着世界上最为先进的搜索引擎技术，使百度成为中国掌握世界尖端科学核心技术的中国高科技企业，也使中国成为美国、俄罗斯、和韩国之外，全球仅有的4个拥有搜索引擎核心技术的国家之一。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>妹子多,工作轻松,待遇好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,稳定性强</t>
+    </r>
+  </si>
+  <si>
+    <t>客服</t>
+  </si>
+  <si>
+    <t>负责接听电话，处理客户提出的问题</t>
+  </si>
+  <si>
+    <t>百度（纳斯达克：BIDU），全球最大的中文搜索引擎、最大的中文网站。1999年底,身在美国硅谷的李彦宏看到了中国互联网及中文搜索引擎服务的巨大发展潜力，抱着技术改变世界的梦想，他毅然辞掉硅谷的高薪工作，携搜索引擎专利技术，于 2000年1月2日在中关村创建了百度公司。
+“百度”二字,来自于八百年前南宋词人辛弃疾的一句词：众里寻他千百度。这句话描述了词人对理想的执着追求。
+百度拥有数万名研发工程师，这是中国乃至全球最为优秀的技术团队。这支队伍掌握着世界上最为先进的搜索引擎技术，使百度成为中国掌握世界尖端科学</t>
+  </si>
+  <si>
+    <t>平安</t>
+  </si>
+  <si>
+    <t>上海/杭州</t>
+  </si>
+  <si>
+    <t>平安logo</t>
+  </si>
+  <si>
+    <t>中国平安保险（集团）股份有限公司（以下简称“中国平安” ，“平安”，“公司”，“集团”）于1988年诞生于深圳蛇口，是中国第一家股份制保险企业，至今已经发展成为金融保险、银行、投资等金融业务为一体的整合、紧密、多元的综合金融服务集团。 [1] 
+2017年6月，《2017年BrandZ最具价值全球品牌100强》公布，中国平安排名第61位； [2]  7月31日，《财富》中国500强排行榜发布，中国平安保险（集团）股份有限公司排名第五。 [3]  2017年9月，中国平安保险（集团）股份有限公司在2017中国企业500强中，排名第八。 [4]  2018年《财富》世界500强排行榜第29名。</t>
+  </si>
+  <si>
     <t>电焊工学徒</t>
   </si>
   <si>
     <t>80/天包培训</t>
   </si>
   <si>
+    <t>17-46周岁</t>
+  </si>
+  <si>
     <t>200-250/天</t>
+  </si>
+  <si>
+    <t>上海富驰高科技</t>
+  </si>
+  <si>
+    <t>女18-42岁，男18-35岁</t>
+  </si>
+  <si>
+    <t>上海富驰高科技logo</t>
+  </si>
+  <si>
+    <t>上海富驰高科技有限公司（简称“富驰高科”）成立于1999年11月，是金属粉末注射成型（MIM）产品专业制造商。富驰高科致力于运用MIM技术生产小型、三维形状复杂的高性能结构零部件，大批量提供高性价比的MIM零件，为客户持续提升市场竞争力提供强有力的支持。</t>
+  </si>
+  <si>
+    <t>上海昌硕科技logo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200-25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/天</t>
+    </r>
+  </si>
+  <si>
+    <t>昆山世硕logo</t>
+  </si>
+  <si>
+    <t>主要从事笔记本电脑、手机等电子信息产品的研发与制造，是全球五大笔记本电脑生产企业之一；昌硕科技（上海）有限公司，主要从事手机电脑开发生产与制造；钧硕电子科技（上海）有限公司，主要从事电子信息产品相关精密模具的设计与制造；华谦商贸（上海）有限公司，主要从事IT相关产品的内销服务。</t>
   </si>
 </sst>
 </file>
@@ -517,11 +663,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +678,42 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -553,10 +735,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,8 +765,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,7 +795,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -599,15 +803,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,7 +820,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,22 +828,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,20 +857,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -682,7 +864,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,25 +879,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +951,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,139 +1059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,11 +1082,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,17 +1106,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,6 +1141,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -973,177 +1170,170 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1465,8 +1655,8 @@
   <sheetPr/>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1480,7 +1670,7 @@
     <col min="7" max="7" width="58.4428571428571" customWidth="1"/>
     <col min="8" max="8" width="14.6285714285714" customWidth="1"/>
     <col min="10" max="10" width="26.5571428571429" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="9" customWidth="1"/>
     <col min="13" max="13" width="20.8785714285714" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1515,7 +1705,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1544,10 +1734,10 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1556,7 +1746,7 @@
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="L2" t="s">
@@ -1585,10 +1775,10 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1597,7 +1787,7 @@
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1626,10 +1816,10 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1638,7 +1828,7 @@
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L4" t="s">
@@ -1667,10 +1857,10 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1679,7 +1869,7 @@
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L5" t="s">
@@ -1708,10 +1898,10 @@
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1720,7 +1910,7 @@
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="9" t="s">
         <v>45</v>
       </c>
       <c r="L6" t="s">
@@ -1749,10 +1939,10 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1761,7 +1951,7 @@
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="11" t="s">
         <v>50</v>
       </c>
       <c r="L7" t="s">
@@ -1790,10 +1980,10 @@
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1802,7 +1992,7 @@
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="11" t="s">
         <v>54</v>
       </c>
       <c r="L8" t="s">
@@ -1831,10 +2021,10 @@
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1843,7 +2033,7 @@
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="11" t="s">
         <v>58</v>
       </c>
       <c r="L9" t="s">
@@ -1872,10 +2062,10 @@
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1884,7 +2074,7 @@
       <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="9" t="s">
         <v>63</v>
       </c>
       <c r="L10" t="s">
@@ -1913,10 +2103,10 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1925,7 +2115,7 @@
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="9" t="s">
         <v>63</v>
       </c>
       <c r="L11" t="s">
@@ -1954,10 +2144,10 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1966,7 +2156,7 @@
       <c r="J12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="9" t="s">
         <v>63</v>
       </c>
       <c r="L12" t="s">
@@ -1995,10 +2185,10 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -2007,7 +2197,7 @@
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="9" t="s">
         <v>63</v>
       </c>
       <c r="L13" t="s">
@@ -2036,10 +2226,10 @@
       <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -2048,7 +2238,7 @@
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="11" t="s">
         <v>73</v>
       </c>
       <c r="L14" t="s">
@@ -2077,10 +2267,10 @@
       <c r="F15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -2089,7 +2279,7 @@
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="9" t="s">
         <v>76</v>
       </c>
       <c r="L15" t="s">
@@ -2118,10 +2308,10 @@
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -2130,7 +2320,7 @@
       <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="11" t="s">
         <v>79</v>
       </c>
       <c r="L16" t="s">
@@ -2159,10 +2349,10 @@
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -2171,7 +2361,7 @@
       <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="11" t="s">
         <v>83</v>
       </c>
       <c r="L17" t="s">
@@ -2200,10 +2390,10 @@
       <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -2212,7 +2402,7 @@
       <c r="J18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="11" t="s">
         <v>86</v>
       </c>
       <c r="L18" t="s">
@@ -2241,10 +2431,10 @@
       <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -2253,7 +2443,7 @@
       <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="11" t="s">
         <v>89</v>
       </c>
       <c r="L19" t="s">
@@ -2282,10 +2472,10 @@
       <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2294,7 +2484,7 @@
       <c r="J20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="11" t="s">
         <v>91</v>
       </c>
       <c r="L20" t="s">
@@ -2323,10 +2513,10 @@
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2335,7 +2525,7 @@
       <c r="J21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="9" t="s">
         <v>63</v>
       </c>
       <c r="L21" t="s">
@@ -2364,10 +2554,10 @@
       <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2376,7 +2566,7 @@
       <c r="J22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="11" t="s">
         <v>98</v>
       </c>
       <c r="L22" t="s">
@@ -2405,10 +2595,10 @@
       <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -2417,7 +2607,7 @@
       <c r="J23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="9" t="s">
         <v>63</v>
       </c>
       <c r="L23" t="s">
@@ -2446,10 +2636,10 @@
       <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2458,7 +2648,7 @@
       <c r="J24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="9" t="s">
         <v>63</v>
       </c>
       <c r="L24" t="s">
@@ -2487,10 +2677,10 @@
       <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2499,7 +2689,7 @@
       <c r="J25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="L25" t="s">
@@ -2528,10 +2718,10 @@
       <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -2540,7 +2730,7 @@
       <c r="J26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="11" t="s">
         <v>109</v>
       </c>
       <c r="L26" t="s">
@@ -2569,10 +2759,10 @@
       <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2581,7 +2771,7 @@
       <c r="J27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="11" t="s">
         <v>113</v>
       </c>
       <c r="L27" t="s">
@@ -2610,10 +2800,10 @@
       <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -2622,7 +2812,7 @@
       <c r="J28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="11" t="s">
         <v>116</v>
       </c>
       <c r="L28" t="s">
@@ -2651,10 +2841,10 @@
       <c r="F29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2663,7 +2853,7 @@
       <c r="J29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L29" t="s">
@@ -2692,10 +2882,10 @@
       <c r="F30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -2704,7 +2894,7 @@
       <c r="J30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="11" t="s">
         <v>124</v>
       </c>
       <c r="L30" t="s">
@@ -2733,10 +2923,10 @@
       <c r="F31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -2745,7 +2935,7 @@
       <c r="J31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="11" t="s">
         <v>128</v>
       </c>
       <c r="L31" t="s">
@@ -2774,10 +2964,10 @@
       <c r="F32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -2786,7 +2976,7 @@
       <c r="J32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="11" t="s">
         <v>91</v>
       </c>
       <c r="L32" t="s">
@@ -2815,10 +3005,10 @@
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -2827,7 +3017,7 @@
       <c r="J33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="11" t="s">
         <v>135</v>
       </c>
       <c r="L33" t="s">
@@ -2856,10 +3046,10 @@
       <c r="F34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -2868,7 +3058,7 @@
       <c r="J34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="11" t="s">
         <v>31</v>
       </c>
       <c r="L34" t="s">
@@ -2897,10 +3087,10 @@
       <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -2909,7 +3099,7 @@
       <c r="J35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="11" t="s">
         <v>142</v>
       </c>
       <c r="L35" t="s">
@@ -2938,10 +3128,10 @@
       <c r="F36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -2950,7 +3140,7 @@
       <c r="J36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="11" t="s">
         <v>145</v>
       </c>
       <c r="L36" t="s">
@@ -2979,10 +3169,10 @@
       <c r="F37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -2991,7 +3181,7 @@
       <c r="J37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="11" t="s">
         <v>148</v>
       </c>
       <c r="L37" t="s">
@@ -3020,10 +3210,10 @@
       <c r="F38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -3032,7 +3222,7 @@
       <c r="J38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="11" t="s">
         <v>150</v>
       </c>
       <c r="L38" t="s">
@@ -3061,10 +3251,10 @@
       <c r="F39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -3073,7 +3263,7 @@
       <c r="J39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="11" t="s">
         <v>152</v>
       </c>
       <c r="L39" t="s">
@@ -3102,10 +3292,10 @@
       <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -3114,7 +3304,7 @@
       <c r="J40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="11" t="s">
         <v>155</v>
       </c>
       <c r="L40" t="s">
@@ -3143,10 +3333,10 @@
       <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -3155,7 +3345,7 @@
       <c r="J41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="11" t="s">
         <v>135</v>
       </c>
       <c r="L41" t="s">
@@ -3184,10 +3374,10 @@
       <c r="F42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -3196,7 +3386,7 @@
       <c r="J42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="11" t="s">
         <v>158</v>
       </c>
       <c r="L42" t="s">
@@ -3225,10 +3415,10 @@
       <c r="F43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -3237,7 +3427,7 @@
       <c r="J43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="9" t="s">
         <v>23</v>
       </c>
       <c r="L43" t="s">
@@ -3301,10 +3491,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18"/>
@@ -3345,7 +3535,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -3374,10 +3564,10 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -3386,7 +3576,7 @@
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="L2" t="s">
@@ -3400,14 +3590,14 @@
       <c r="A3" t="s">
         <v>160</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
+      <c r="C3" t="s">
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -3415,133 +3605,133 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
+      <c r="G3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>35</v>
+      <c r="G4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" t="s">
-        <v>24</v>
+      <c r="M4" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>40</v>
+      <c r="G5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
-        <v>24</v>
+      <c r="M5" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -3550,11 +3740,11 @@
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>63</v>
+      <c r="K6" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
@@ -3562,27 +3752,27 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -3591,11 +3781,11 @@
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>63</v>
+      <c r="K7" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -3603,27 +3793,27 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -3632,11 +3822,11 @@
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>63</v>
+      <c r="K8" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
@@ -3644,16 +3834,16 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>61</v>
@@ -3661,10 +3851,10 @@
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -3673,11 +3863,11 @@
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="9" t="s">
         <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
         <v>24</v>
@@ -3685,27 +3875,27 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -3714,11 +3904,11 @@
       <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>116</v>
+      <c r="K10" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
         <v>24</v>
@@ -3729,54 +3919,300 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="H14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G4" r:id="rId2" display="http://www.lanxiangren.net/static/logo/dafeng.png"/>
-    <hyperlink ref="G5" r:id="rId3" display="http://www.lanxiangren.net/static/logo/yinghuada.gif"/>
-    <hyperlink ref="G6" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G7" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G8" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
+    <hyperlink ref="G7" r:id="rId2" display="http://www.lanxiangren.net/static/logo/dafeng.png"/>
+    <hyperlink ref="G8" r:id="rId3" display="http://www.lanxiangren.net/static/logo/yinghuada.gif"/>
     <hyperlink ref="G9" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G10" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G11" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G3" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G10" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
+    <hyperlink ref="G11" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
+    <hyperlink ref="G12" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
+    <hyperlink ref="G13" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G14" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G6" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <t>title</t>
   </si>
@@ -509,9 +509,6 @@
   </si>
   <si>
     <t>百度</t>
-  </si>
-  <si>
-    <t>百度logo</t>
   </si>
   <si>
     <r>
@@ -588,9 +585,6 @@
     <t>上海/杭州</t>
   </si>
   <si>
-    <t>平安logo</t>
-  </si>
-  <si>
     <t>中国平安保险（集团）股份有限公司（以下简称“中国平安” ，“平安”，“公司”，“集团”）于1988年诞生于深圳蛇口，是中国第一家股份制保险企业，至今已经发展成为金融保险、银行、投资等金融业务为一体的整合、紧密、多元的综合金融服务集团。 [1] 
 2017年6月，《2017年BrandZ最具价值全球品牌100强》公布，中国平安排名第61位； [2]  7月31日，《财富》中国500强排行榜发布，中国平安保险（集团）股份有限公司排名第五。 [3]  2017年9月，中国平安保险（集团）股份有限公司在2017中国企业500强中，排名第八。 [4]  2018年《财富》世界500强排行榜第29名。</t>
   </si>
@@ -613,13 +607,7 @@
     <t>女18-42岁，男18-35岁</t>
   </si>
   <si>
-    <t>上海富驰高科技logo</t>
-  </si>
-  <si>
     <t>上海富驰高科技有限公司（简称“富驰高科”）成立于1999年11月，是金属粉末注射成型（MIM）产品专业制造商。富驰高科致力于运用MIM技术生产小型、三维形状复杂的高性能结构零部件，大批量提供高性价比的MIM零件，为客户持续提升市场竞争力提供强有力的支持。</t>
-  </si>
-  <si>
-    <t>上海昌硕科技logo</t>
   </si>
   <si>
     <r>
@@ -651,9 +639,6 @@
     </r>
   </si>
   <si>
-    <t>昆山世硕logo</t>
-  </si>
-  <si>
     <t>主要从事笔记本电脑、手机等电子信息产品的研发与制造，是全球五大笔记本电脑生产企业之一；昌硕科技（上海）有限公司，主要从事手机电脑开发生产与制造；钧硕电子科技（上海）有限公司，主要从事电子信息产品相关精密模具的设计与制造；华谦商贸（上海）有限公司，主要从事IT相关产品的内销服务。</t>
   </si>
 </sst>
@@ -662,12 +647,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,20 +662,6 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -713,12 +684,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -735,8 +700,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -752,14 +724,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,22 +738,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,7 +754,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,8 +769,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,7 +786,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,9 +806,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,10 +836,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -879,7 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +868,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,31 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,19 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,13 +934,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +976,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,19 +1012,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,31 +1036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,8 +1053,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,42 +1101,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1156,184 +1137,177 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1670,7 +1644,7 @@
     <col min="7" max="7" width="58.4428571428571" customWidth="1"/>
     <col min="8" max="8" width="14.6285714285714" customWidth="1"/>
     <col min="10" max="10" width="26.5571428571429" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="9" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="7" customWidth="1"/>
     <col min="13" max="13" width="20.8785714285714" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1705,7 +1679,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1734,10 +1708,10 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1746,7 +1720,7 @@
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L2" t="s">
@@ -1775,10 +1749,10 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1787,7 +1761,7 @@
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1816,10 +1790,10 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1828,7 +1802,7 @@
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L4" t="s">
@@ -1857,10 +1831,10 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1869,7 +1843,7 @@
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L5" t="s">
@@ -1898,10 +1872,10 @@
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1910,7 +1884,7 @@
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L6" t="s">
@@ -1939,10 +1913,10 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1951,7 +1925,7 @@
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="9" t="s">
         <v>50</v>
       </c>
       <c r="L7" t="s">
@@ -1980,10 +1954,10 @@
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1992,7 +1966,7 @@
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="9" t="s">
         <v>54</v>
       </c>
       <c r="L8" t="s">
@@ -2021,10 +1995,10 @@
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2033,7 +2007,7 @@
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="9" t="s">
         <v>58</v>
       </c>
       <c r="L9" t="s">
@@ -2062,10 +2036,10 @@
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2074,7 +2048,7 @@
       <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L10" t="s">
@@ -2103,10 +2077,10 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2115,7 +2089,7 @@
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L11" t="s">
@@ -2144,10 +2118,10 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2156,7 +2130,7 @@
       <c r="J12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L12" t="s">
@@ -2185,10 +2159,10 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -2197,7 +2171,7 @@
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L13" t="s">
@@ -2226,10 +2200,10 @@
       <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -2238,7 +2212,7 @@
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="9" t="s">
         <v>73</v>
       </c>
       <c r="L14" t="s">
@@ -2267,10 +2241,10 @@
       <c r="F15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -2279,7 +2253,7 @@
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L15" t="s">
@@ -2308,10 +2282,10 @@
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -2320,7 +2294,7 @@
       <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>79</v>
       </c>
       <c r="L16" t="s">
@@ -2349,10 +2323,10 @@
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -2361,7 +2335,7 @@
       <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="9" t="s">
         <v>83</v>
       </c>
       <c r="L17" t="s">
@@ -2390,10 +2364,10 @@
       <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -2402,7 +2376,7 @@
       <c r="J18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="9" t="s">
         <v>86</v>
       </c>
       <c r="L18" t="s">
@@ -2431,10 +2405,10 @@
       <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -2443,7 +2417,7 @@
       <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="9" t="s">
         <v>89</v>
       </c>
       <c r="L19" t="s">
@@ -2472,10 +2446,10 @@
       <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2484,7 +2458,7 @@
       <c r="J20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="9" t="s">
         <v>91</v>
       </c>
       <c r="L20" t="s">
@@ -2513,10 +2487,10 @@
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2525,7 +2499,7 @@
       <c r="J21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L21" t="s">
@@ -2554,10 +2528,10 @@
       <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2566,7 +2540,7 @@
       <c r="J22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="9" t="s">
         <v>98</v>
       </c>
       <c r="L22" t="s">
@@ -2595,10 +2569,10 @@
       <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -2607,7 +2581,7 @@
       <c r="J23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L23" t="s">
@@ -2636,10 +2610,10 @@
       <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2648,7 +2622,7 @@
       <c r="J24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L24" t="s">
@@ -2677,10 +2651,10 @@
       <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2689,7 +2663,7 @@
       <c r="J25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="9" t="s">
         <v>50</v>
       </c>
       <c r="L25" t="s">
@@ -2718,10 +2692,10 @@
       <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -2730,7 +2704,7 @@
       <c r="J26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="9" t="s">
         <v>109</v>
       </c>
       <c r="L26" t="s">
@@ -2759,10 +2733,10 @@
       <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2771,7 +2745,7 @@
       <c r="J27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="9" t="s">
         <v>113</v>
       </c>
       <c r="L27" t="s">
@@ -2800,10 +2774,10 @@
       <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -2812,7 +2786,7 @@
       <c r="J28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="9" t="s">
         <v>116</v>
       </c>
       <c r="L28" t="s">
@@ -2841,10 +2815,10 @@
       <c r="F29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2853,7 +2827,7 @@
       <c r="J29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="9" t="s">
         <v>121</v>
       </c>
       <c r="L29" t="s">
@@ -2882,10 +2856,10 @@
       <c r="F30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -2894,7 +2868,7 @@
       <c r="J30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="9" t="s">
         <v>124</v>
       </c>
       <c r="L30" t="s">
@@ -2923,10 +2897,10 @@
       <c r="F31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -2935,7 +2909,7 @@
       <c r="J31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="9" t="s">
         <v>128</v>
       </c>
       <c r="L31" t="s">
@@ -2964,10 +2938,10 @@
       <c r="F32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -2976,7 +2950,7 @@
       <c r="J32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="9" t="s">
         <v>91</v>
       </c>
       <c r="L32" t="s">
@@ -3005,10 +2979,10 @@
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -3017,7 +2991,7 @@
       <c r="J33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="9" t="s">
         <v>135</v>
       </c>
       <c r="L33" t="s">
@@ -3046,10 +3020,10 @@
       <c r="F34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -3058,7 +3032,7 @@
       <c r="J34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L34" t="s">
@@ -3087,10 +3061,10 @@
       <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -3099,7 +3073,7 @@
       <c r="J35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="9" t="s">
         <v>142</v>
       </c>
       <c r="L35" t="s">
@@ -3128,10 +3102,10 @@
       <c r="F36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -3140,7 +3114,7 @@
       <c r="J36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="9" t="s">
         <v>145</v>
       </c>
       <c r="L36" t="s">
@@ -3169,10 +3143,10 @@
       <c r="F37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -3181,7 +3155,7 @@
       <c r="J37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="9" t="s">
         <v>148</v>
       </c>
       <c r="L37" t="s">
@@ -3210,10 +3184,10 @@
       <c r="F38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -3222,7 +3196,7 @@
       <c r="J38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="9" t="s">
         <v>150</v>
       </c>
       <c r="L38" t="s">
@@ -3251,10 +3225,10 @@
       <c r="F39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -3263,7 +3237,7 @@
       <c r="J39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="9" t="s">
         <v>152</v>
       </c>
       <c r="L39" t="s">
@@ -3292,10 +3266,10 @@
       <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -3304,7 +3278,7 @@
       <c r="J40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="9" t="s">
         <v>155</v>
       </c>
       <c r="L40" t="s">
@@ -3333,10 +3307,10 @@
       <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -3345,7 +3319,7 @@
       <c r="J41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="9" t="s">
         <v>135</v>
       </c>
       <c r="L41" t="s">
@@ -3374,10 +3348,10 @@
       <c r="F42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -3386,7 +3360,7 @@
       <c r="J42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="9" t="s">
         <v>158</v>
       </c>
       <c r="L42" t="s">
@@ -3415,10 +3389,10 @@
       <c r="F43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -3427,7 +3401,7 @@
       <c r="J43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L43" t="s">
@@ -3491,17 +3465,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="23.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="60.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3535,7 +3509,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -3564,10 +3538,10 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -3576,7 +3550,7 @@
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L2" t="s">
@@ -3605,31 +3579,31 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>161</v>
@@ -3646,40 +3620,40 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>167</v>
+      <c r="M4" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
         <v>171</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -3687,34 +3661,34 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>174</v>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>167</v>
+      <c r="M5" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -3728,10 +3702,10 @@
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -3740,7 +3714,7 @@
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L6" t="s">
@@ -3769,10 +3743,10 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -3781,7 +3755,7 @@
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L7" t="s">
@@ -3810,10 +3784,10 @@
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -3822,7 +3796,7 @@
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L8" t="s">
@@ -3851,10 +3825,10 @@
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -3863,7 +3837,7 @@
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L9" t="s">
@@ -3892,10 +3866,10 @@
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -3904,7 +3878,7 @@
       <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L10" t="s">
@@ -3933,10 +3907,10 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -3945,7 +3919,7 @@
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L11" t="s">
@@ -3974,10 +3948,10 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -3986,7 +3960,7 @@
       <c r="J12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L12" t="s">
@@ -4009,16 +3983,16 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>177</v>
+      <c r="E13" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -4027,7 +4001,7 @@
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="9" t="s">
         <v>116</v>
       </c>
       <c r="L13" t="s">
@@ -4042,7 +4016,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>140</v>
@@ -4056,10 +4030,10 @@
       <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -4068,7 +4042,7 @@
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="9" t="s">
         <v>142</v>
       </c>
       <c r="L14" t="s">
@@ -4083,34 +4057,34 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="L15" t="s">
         <v>28</v>
@@ -4124,25 +4098,25 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>164</v>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>21</v>
@@ -4150,7 +4124,7 @@
       <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L16" t="s">
@@ -4164,26 +4138,26 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>164</v>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>21</v>
@@ -4191,28 +4165,37 @@
       <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="L17" s="12" t="s">
+      <c r="K17" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="M17" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
     <hyperlink ref="G7" r:id="rId2" display="http://www.lanxiangren.net/static/logo/dafeng.png"/>
     <hyperlink ref="G8" r:id="rId3" display="http://www.lanxiangren.net/static/logo/yinghuada.gif"/>
     <hyperlink ref="G9" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
     <hyperlink ref="G10" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
     <hyperlink ref="G11" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
     <hyperlink ref="G12" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G13" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G14" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G6" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G13" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G14" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G6" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G3" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G4" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G5" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G15" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G16" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G17" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>title</t>
   </si>
@@ -502,6 +502,9 @@
     <t>焊工类培训学校实习生</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/zhongji.jpg</t>
+  </si>
+  <si>
     <t>销售</t>
   </si>
   <si>
@@ -509,6 +512,9 @@
   </si>
   <si>
     <t>百度</t>
+  </si>
+  <si>
+    <t>http://www.lanxiangren.net/static/logo/baidu.jpg</t>
   </si>
   <si>
     <r>
@@ -585,6 +591,9 @@
     <t>上海/杭州</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/pingan.jpg</t>
+  </si>
+  <si>
     <t>中国平安保险（集团）股份有限公司（以下简称“中国平安” ，“平安”，“公司”，“集团”）于1988年诞生于深圳蛇口，是中国第一家股份制保险企业，至今已经发展成为金融保险、银行、投资等金融业务为一体的整合、紧密、多元的综合金融服务集团。 [1] 
 2017年6月，《2017年BrandZ最具价值全球品牌100强》公布，中国平安排名第61位； [2]  7月31日，《财富》中国500强排行榜发布，中国平安保险（集团）股份有限公司排名第五。 [3]  2017年9月，中国平安保险（集团）股份有限公司在2017中国企业500强中，排名第八。 [4]  2018年《财富》世界500强排行榜第29名。</t>
   </si>
@@ -647,10 +656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -700,6 +709,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -716,39 +806,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,14 +821,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -777,59 +829,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,7 +865,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,13 +919,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,19 +967,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,109 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,6 +1056,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1068,45 +1142,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1121,177 +1156,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3468,7 +3477,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18"/>
@@ -3539,7 +3548,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>20</v>
@@ -3562,13 +3571,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3580,36 +3589,36 @@
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L3" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -3621,39 +3630,39 @@
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -3662,33 +3671,33 @@
         <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -3703,7 +3712,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>20</v>
@@ -3984,7 +3993,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
@@ -4016,7 +4025,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>140</v>
@@ -4057,16 +4066,16 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>18</v>
@@ -4075,7 +4084,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>21</v>
@@ -4084,7 +4093,7 @@
         <v>22</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
         <v>28</v>
@@ -4098,7 +4107,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>138</v>
@@ -4116,7 +4125,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>21</v>
@@ -4139,7 +4148,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>42</v>
@@ -4157,7 +4166,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>21</v>
@@ -4166,7 +4175,7 @@
         <v>22</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>43</v>
@@ -4179,24 +4188,6 @@
       <c r="G18" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G7" r:id="rId2" display="http://www.lanxiangren.net/static/logo/dafeng.png"/>
-    <hyperlink ref="G8" r:id="rId3" display="http://www.lanxiangren.net/static/logo/yinghuada.gif"/>
-    <hyperlink ref="G9" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G10" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G11" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G12" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G13" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G14" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G6" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G3" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G4" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G5" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G15" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G16" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G17" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444" activeTab="2"/>
+    <workbookView windowWidth="28660" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>百度</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <r>
@@ -581,9 +584,6 @@
     </r>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>客服</t>
   </si>
   <si>
@@ -673,6 +673,9 @@
     <t>上海/北京</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>0基础,推荐就业,项目实战</t>
   </si>
   <si>
@@ -694,9 +697,6 @@
     <t>Java,Python,Orcale,Mysql,Linux,LoadRunner,QTP</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>线上</t>
   </si>
   <si>
@@ -711,13 +711,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mm:ss\."/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,8 +735,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -744,6 +745,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -766,15 +774,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,22 +803,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,39 +818,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -864,8 +840,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,23 +886,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,7 +929,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,175 +1103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,6 +1120,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1134,233 +1216,159 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1368,84 +1376,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1712,7 +1726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P43"/>
   <sheetViews>
@@ -1720,19 +1734,19 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.4259259259259" customWidth="1"/>
-    <col min="2" max="2" width="16.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="19.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="19.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="16.3785714285714" customWidth="1"/>
+    <col min="3" max="3" width="19.6285714285714" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5740740740741" customWidth="1"/>
+    <col min="5" max="5" width="22.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="58.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="14.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="21.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="58.4428571428571" customWidth="1"/>
+    <col min="8" max="8" width="14.6285714285714" customWidth="1"/>
+    <col min="10" max="10" width="21.2214285714286" customWidth="1"/>
     <col min="11" max="11" width="18.25" style="15" customWidth="1"/>
-    <col min="13" max="13" width="32.7777777777778" customWidth="1"/>
+    <col min="13" max="13" width="32.7785714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1792,28 +1806,28 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="15" t="s">
@@ -1830,34 +1844,34 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="H3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>34</v>
       </c>
       <c r="L3" t="s">
@@ -1871,7 +1885,7 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
@@ -1880,25 +1894,25 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="17" t="s">
+      <c r="H4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>38</v>
       </c>
       <c r="L4" t="s">
@@ -1912,7 +1926,7 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
@@ -1921,25 +1935,25 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="H5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>43</v>
       </c>
       <c r="L5" t="s">
@@ -1953,7 +1967,7 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
@@ -1962,22 +1976,22 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="H6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -1994,7 +2008,7 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
@@ -2003,25 +2017,25 @@
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="17" t="s">
+      <c r="H7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>53</v>
       </c>
       <c r="L7" t="s">
@@ -2035,7 +2049,7 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
@@ -2044,25 +2058,25 @@
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="17" t="s">
+      <c r="H8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>57</v>
       </c>
       <c r="L8" t="s">
@@ -2076,7 +2090,7 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
@@ -2085,25 +2099,25 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="17" t="s">
+      <c r="H9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>61</v>
       </c>
       <c r="L9" t="s">
@@ -2117,7 +2131,7 @@
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -2126,22 +2140,22 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="H10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="15" t="s">
@@ -2158,7 +2172,7 @@
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
@@ -2167,22 +2181,22 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="H11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="15" t="s">
@@ -2199,7 +2213,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -2208,22 +2222,22 @@
       <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="H12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="15" t="s">
@@ -2240,7 +2254,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
@@ -2249,22 +2263,22 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="H13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -2281,34 +2295,34 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="17" t="s">
+      <c r="H14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>76</v>
       </c>
       <c r="L14" t="s">
@@ -2322,7 +2336,7 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C15" t="s">
@@ -2331,22 +2345,22 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="H15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="15" t="s">
@@ -2363,7 +2377,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
@@ -2372,25 +2386,25 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="17" t="s">
+      <c r="H16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>82</v>
       </c>
       <c r="L16" t="s">
@@ -2404,7 +2418,7 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C17" t="s">
@@ -2413,25 +2427,25 @@
       <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="17" t="s">
+      <c r="H17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>86</v>
       </c>
       <c r="L17" t="s">
@@ -2445,7 +2459,7 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C18" t="s">
@@ -2454,25 +2468,25 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="17" t="s">
+      <c r="H18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="19" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
@@ -2486,7 +2500,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
@@ -2495,25 +2509,25 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="17" t="s">
+      <c r="H19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="19" t="s">
         <v>92</v>
       </c>
       <c r="L19" t="s">
@@ -2527,7 +2541,7 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
@@ -2536,25 +2550,25 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="17" t="s">
+      <c r="H20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="19" t="s">
         <v>94</v>
       </c>
       <c r="L20" t="s">
@@ -2568,7 +2582,7 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
@@ -2577,22 +2591,22 @@
       <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="H21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K21" s="15" t="s">
@@ -2609,7 +2623,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
@@ -2618,25 +2632,25 @@
       <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="17" t="s">
+      <c r="H22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="19" t="s">
         <v>101</v>
       </c>
       <c r="L22" t="s">
@@ -2650,7 +2664,7 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
@@ -2659,22 +2673,22 @@
       <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="H23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K23" s="15" t="s">
@@ -2691,7 +2705,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
@@ -2700,22 +2714,22 @@
       <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="H24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="15" t="s">
@@ -2732,7 +2746,7 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
@@ -2741,25 +2755,25 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="F25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="17" t="s">
+      <c r="H25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>53</v>
       </c>
       <c r="L25" t="s">
@@ -2773,7 +2787,7 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
@@ -2782,25 +2796,25 @@
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="F26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="17" t="s">
+      <c r="H26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="19" t="s">
         <v>112</v>
       </c>
       <c r="L26" t="s">
@@ -2814,7 +2828,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
@@ -2823,25 +2837,25 @@
       <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="F27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="17" t="s">
+      <c r="H27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="19" t="s">
         <v>116</v>
       </c>
       <c r="L27" t="s">
@@ -2855,7 +2869,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
@@ -2864,25 +2878,25 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="18" t="s">
+      <c r="F28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="17" t="s">
+      <c r="H28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="19" t="s">
         <v>119</v>
       </c>
       <c r="L28" t="s">
@@ -2896,7 +2910,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
@@ -2905,25 +2919,25 @@
       <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="17" t="s">
+      <c r="H29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>124</v>
       </c>
       <c r="L29" t="s">
@@ -2937,7 +2951,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -2946,25 +2960,25 @@
       <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="18" t="s">
+      <c r="F30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="17" t="s">
+      <c r="H30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="19" t="s">
         <v>127</v>
       </c>
       <c r="L30" t="s">
@@ -2978,7 +2992,7 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
@@ -2987,25 +3001,25 @@
       <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="F31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="17" t="s">
+      <c r="H31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="19" t="s">
         <v>131</v>
       </c>
       <c r="L31" t="s">
@@ -3019,7 +3033,7 @@
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C32" t="s">
@@ -3028,25 +3042,25 @@
       <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="F32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="17" t="s">
+      <c r="H32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="19" t="s">
         <v>94</v>
       </c>
       <c r="L32" t="s">
@@ -3060,7 +3074,7 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C33" t="s">
@@ -3069,25 +3083,25 @@
       <c r="D33" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="18" t="s">
+      <c r="F33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="17" t="s">
+      <c r="H33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="19" t="s">
         <v>138</v>
       </c>
       <c r="L33" t="s">
@@ -3101,34 +3115,34 @@
       <c r="A34" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="F34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="17" t="s">
+      <c r="H34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="19" t="s">
         <v>34</v>
       </c>
       <c r="L34" t="s">
@@ -3142,34 +3156,34 @@
       <c r="A35" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="18" t="s">
+      <c r="F35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="17" t="s">
+      <c r="H35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="19" t="s">
         <v>145</v>
       </c>
       <c r="L35" t="s">
@@ -3183,34 +3197,34 @@
       <c r="A36" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="18" t="s">
+      <c r="F36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="17" t="s">
+      <c r="H36" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="19" t="s">
         <v>148</v>
       </c>
       <c r="L36" t="s">
@@ -3224,34 +3238,34 @@
       <c r="A37" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="11" t="s">
         <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="18" t="s">
+      <c r="F37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="17" t="s">
+      <c r="H37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="19" t="s">
         <v>151</v>
       </c>
       <c r="L37" t="s">
@@ -3265,34 +3279,34 @@
       <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="11" t="s">
         <v>152</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="18" t="s">
+      <c r="F38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="17" t="s">
+      <c r="H38" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="19" t="s">
         <v>153</v>
       </c>
       <c r="L38" t="s">
@@ -3306,34 +3320,34 @@
       <c r="A39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="11" t="s">
         <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="F39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="17" t="s">
+      <c r="H39" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="19" t="s">
         <v>155</v>
       </c>
       <c r="L39" t="s">
@@ -3347,34 +3361,34 @@
       <c r="A40" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="11" t="s">
         <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="17" t="s">
+      <c r="H40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="19" t="s">
         <v>158</v>
       </c>
       <c r="L40" t="s">
@@ -3388,34 +3402,34 @@
       <c r="A41" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="11" t="s">
         <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="18" t="s">
+      <c r="F41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="17" t="s">
+      <c r="H41" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="19" t="s">
         <v>138</v>
       </c>
       <c r="L41" t="s">
@@ -3429,34 +3443,34 @@
       <c r="A42" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="18" t="s">
+      <c r="F42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="17" t="s">
+      <c r="H42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="19" t="s">
         <v>161</v>
       </c>
       <c r="L42" t="s">
@@ -3470,31 +3484,31 @@
       <c r="A43" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="18" t="s">
+      <c r="F43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="9" t="s">
+      <c r="H43" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K43" s="15" t="s">
@@ -3559,19 +3573,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.13571428571429" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.1388888888889" customWidth="1"/>
-    <col min="7" max="7" width="60.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="23.1357142857143" customWidth="1"/>
+    <col min="7" max="7" width="60.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3597,25 +3611,25 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3625,48 +3639,48 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="H2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C3" t="s">
@@ -3675,34 +3689,34 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3710,7 +3724,7 @@
       <c r="A4" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C4" t="s">
@@ -3719,34 +3733,34 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3754,7 +3768,7 @@
       <c r="A5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C5" t="s">
@@ -3763,34 +3777,34 @@
       <c r="D5" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L5" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3801,48 +3815,48 @@
       <c r="B6" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
@@ -3851,42 +3865,42 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="17" t="s">
+      <c r="H7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
@@ -3895,42 +3909,42 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="17" t="s">
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
@@ -3939,42 +3953,42 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>63</v>
       </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
       <c r="N9" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -3983,42 +3997,42 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="H10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>63</v>
       </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C11" t="s">
@@ -4027,42 +4041,42 @@
       <c r="D11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="15" t="s">
+      <c r="H11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>70</v>
       </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
       <c r="N11" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -4071,42 +4085,42 @@
       <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="15" t="s">
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>73</v>
       </c>
-      <c r="M12" t="s">
-        <v>27</v>
-      </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
@@ -4115,215 +4129,215 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="17" t="s">
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="L13" t="s">
-        <v>31</v>
-      </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="17" t="s">
+      <c r="H14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>182</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="17" t="s">
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="L15" t="s">
-        <v>31</v>
-      </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="17" t="s">
+      <c r="H16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="17" t="s">
+      <c r="H17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="M17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M17" t="s">
-        <v>27</v>
-      </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="13"/>
+      <c r="G18" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4350,25 +4364,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="30.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="10.5571428571429" customWidth="1"/>
+    <col min="3" max="3" width="30.5571428571429" customWidth="1"/>
+    <col min="4" max="4" width="11.5571428571429" customWidth="1"/>
+    <col min="5" max="5" width="11.6642857142857" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="22.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="22.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="32.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="8" max="8" width="11.2214285714286" customWidth="1"/>
+    <col min="10" max="10" width="22.8857142857143" customWidth="1"/>
+    <col min="11" max="11" width="22.4428571428571" customWidth="1"/>
+    <col min="12" max="12" width="32.1142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4394,28 +4409,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" ht="201.6" spans="1:14">
+    </row>
+    <row r="2" ht="216" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>187</v>
       </c>
@@ -4434,32 +4449,32 @@
       <c r="F2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" ht="158.4" spans="1:14">
+    <row r="3" ht="162" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>187</v>
       </c>
@@ -4478,41 +4493,35 @@
       <c r="F3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10" s="8"/>
+    <row r="10" spans="3:12">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="L10" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="train" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
   <si>
     <t>title</t>
   </si>
@@ -658,7 +659,7 @@
     <t>主要从事笔记本电脑、手机等电子信息产品的研发与制造，是全球五大笔记本电脑生产企业之一；昌硕科技（上海）有限公司，主要从事手机电脑开发生产与制造；钧硕电子科技（上海）有限公司，主要从事电子信息产品相关精密模具的设计与制造；华谦商贸（上海）有限公司，主要从事IT相关产品的内销服务。</t>
   </si>
   <si>
-    <t>0基础软件测试就业班</t>
+    <t>0基础软件测试线下就业班</t>
   </si>
   <si>
     <t>优就业</t>
@@ -673,16 +674,17 @@
     <t>上海/北京</t>
   </si>
   <si>
-    <t>0基础,推荐就业,项目实战</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本课程针对0基础人员转型互联网测试工程师开办。
+    <t>0基础,推荐就业,项目实战，就业薪资5500起</t>
+  </si>
+  <si>
+    <t>本课程针对0基础人员转型互联网测试工程师开办。
 全程线下脱产教学。
 学习时长共3.5个月，每周一至周五全天。
 北京地区提供免费食宿。
 上海地区不提供食宿，但每月提供600元食宿补贴，总计2100元。
 坚持课程完结后，提供1500元就业基金。
-</t>
+就业薪资5500起
+就业后3年平均月薪9500元</t>
   </si>
   <si>
     <t>软件测试基础:计算机基础、软件测试理论、软件测试方法及工具、功能测试项目
@@ -697,14 +699,279 @@
     <t>C</t>
   </si>
   <si>
+    <t>0基础软件测试直播就业班</t>
+  </si>
+  <si>
+    <t>稳就业</t>
+  </si>
+  <si>
+    <t>工作日晚上及周末全天</t>
+  </si>
+  <si>
     <t>线上</t>
   </si>
   <si>
-    <t xml:space="preserve">本课程针对0基础人员转型互联网测试工程师开办。
-全程线上非脱产教学。
-学习时长共3.5个月，每周3晚、周6、周日。同步直播教学。
+    <t>全国</t>
+  </si>
+  <si>
+    <t>本课程针对0基础人员转型互联网测试工程师开办。
+全程线上非脱产直播教学。
+学习时长共3.5个月，工作日晚上、周6、周日。同步直播教学。
 坚持课程完结后，提供300元就业基金。
+就业薪资5500起
+就业后3年平均月薪9500元</t>
+  </si>
+  <si>
+    <t>JAVA开发线下就业班</t>
+  </si>
+  <si>
+    <t>0基础,就业岗位空缺极大，发展前景好，就业薪资6500起</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型互联网JAVA开发工程师开办。
+全程线下脱产教学。
+学习时长共5.5个月，每周一至周五全天。
+北京地区提供免费食宿。
+上海地区不提供食宿，但每月提供600元食宿补贴，总计3300元。
+坚持课程完结后，提供1500元就业基金。
+就业薪资6500起
+就业后3年平均月薪11000元</t>
+  </si>
+  <si>
+    <t>JavaEE基础：基础语法、面向对象、核心类库、异常、集合、JDK1.8新特性等
+JavaWeb开发：前端技术、数据库、JDBC&amp;JDBCUtis、服务器&amp;Servlet、Struts、实战项目
+Java高级框架：SpringMVC、Linux&amp;Redis
+&amp;Nginx、企业级实战项目
+（SSM）
+分布式项目实战：SpringBoot、商城
+项目
+就业指导：企业面试前期准备及技巧、企业面试实践</t>
+  </si>
+  <si>
+    <t>Java,Python,Orcale,Mysql,Linux,SpringBoot、Oracle</t>
+  </si>
+  <si>
+    <t>JAVA开发直播就业班</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型互联网JAVA开发工程师开办。
+全程线上非脱产直播教学。
+学习时长共5.5个月，工作日晚上、周6、周日。
+坚持课程完结后，提供600元就业基金。
+就业薪资6500起
+就业后3年平均月薪11000元</t>
+  </si>
+  <si>
+    <t>Python开发线下就业班</t>
+  </si>
+  <si>
+    <t>0基础,就业面广泛，朝阳技能生命周期长，人工智能，大数据</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型互联网Python相关开发工程师开办。
+后期就业岗位包括：python工程师、人工智能工程师、爬虫开发工程师、搜素引擎工程师、游戏开发工程师
+全程线下脱产教学。
+学习时长共4.5个月，每周一至周五全天。
+北京地区提供免费食宿。
+上海地区不提供食宿，但每月提供600元食宿补贴，总计2700元。
+坚持课程完结后，提供1500元就业基金。
+就业薪资6000起
+就业后3年平均月薪14000元</t>
+  </si>
+  <si>
+    <t>Python基础课程：基础语法、函数、面向对象、常见模块。
+Python高级和Linux操作系统：Linux操作系统、项目：网络web
+服务器、项目：Web框架
+Python全栈开发：HTML+CSS、HTML5+CSS3、Vue、后端开发
+Django、全栈项目：电
+商平台
+爬虫开发：Mongodb应用开发、Scrapy框架、项目：定制化爬虫
+框架TaskSpider
+人工智能：数据挖掘与分析、机器学习、神经网络、项目：智能金融
+交易平台
+就业指导：企业面试前期准备及技巧、企业面试实践</t>
+  </si>
+  <si>
+    <t>Python,HTML5,CSS3,Mongodb,Scrapy,爬虫,机器学习,神经网络</t>
+  </si>
+  <si>
+    <t>Python开发直播就业班</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型互联网Python相关开发工程师开办。
+后期就业岗位包括：python工程师、人工智能工程师、爬虫开发工程师、搜素引擎工程师、游戏开发工程师
+全程线上非脱产直播教学。
+学习时长共4.5个月，工作日晚上、周6、周日。同步直播教学。
+坚持课程完结后，提供600元就业基金。
+就业薪资6000起
+就业后3年平均月薪14000元</t>
+  </si>
+  <si>
+    <t>UI交互设计师线下就业班</t>
+  </si>
+  <si>
+    <t>精设计,会代码,懂产品,10+年大牛教学,职业生命周期长</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型互联网UI交互设计师开办。
+全程线下脱产教学。
+学习时长共5个月，每周一至周五全天。
+北京地区提供免费食宿。
+上海地区不提供食宿，但每月提供600元食宿补贴，总计3000元。
+坚持课程完结后，提供1500元就业基金。
+就业薪资5000起
+就业后3年平均月薪10000元</t>
+  </si>
+  <si>
+    <t>软件基础与矢量插画绘制：行业概述与学前准备，Photoshop图像处理软件，Illustrator矢量图形处理软件，CorelDRAW 矢量软件，项目：矢量插画绘制
+平面媒体设计：三大构成与设计基础，商业创意思维，书籍装帧设计与排版，产品包装设计，印刷前期与制作工艺
+网站设计与制作：营销类页面设计，企业、商城、门户网站设计，H5营销设计与交互动效，移动端布局
+智能设备交互界面设计：APP需求分析与手绘原型图，三大平台设计规范，AE动效设计，视觉规范与包装
+就业指导：企业面试前期准备及技巧、企业面试实践</t>
+  </si>
+  <si>
+    <t>Photoshop,Illustrator,CorelDRAW,移动端,APP需求与手绘,视觉规范与包装</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型互联网UI交互设计师开办。
+全程线上非脱产直播教学。
+学习时长共5个月，工作日晚上、周6、周日。同步直播教学。
+坚持课程完结后，提供800元就业基金。
+就业薪资5000起
+就业后3年平均月薪10000元</t>
+  </si>
+  <si>
+    <t>平面设计师线下就业班</t>
+  </si>
+  <si>
+    <t>0基础,就业可夸行业,赠送免费网课</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型平面设计师开办。
+全程线下脱产教学。
+学习时长共2个月，每周一至周五全天。
+北京地区提供免费食宿。
+上海地区不提供食宿，但每月提供600元食宿补贴，总计1200元。
+就业薪资4500起
+就业后3年平均月薪9000元</t>
+  </si>
+  <si>
+    <t>软件基础与矢量插画绘制：行业概述与学前准备，Photoshop图像处理软件，Illustrator矢量图形处理软件，CorelDRAW 矢量软件，项目：矢量插画绘制
+平面媒体设计：三大构成与设计基础，商业创意思维，书籍装帧设计与排版，产品包装设计，印刷前期与制作工艺
+就业指导：企业面试前期准备及技巧、企业面试实践</t>
+  </si>
+  <si>
+    <t>Photoshop,Illustrator,CorelDRAW,产品包装设计,商业创意思维</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型平面设计师开办。
+全程线下脱产教学。
+全程线上非脱产直播教学。
+学习时长共2个月，工作日晚上、周6、周日。同步直播教学。
+就业薪资4500起
+就业后3年平均月薪9000元</t>
+  </si>
+  <si>
+    <t>电商人才线下全日制班</t>
+  </si>
+  <si>
+    <t>适用行业覆盖全国，薪资稳定，适合后期自我创业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本课程针对无基础的人员转型电商类人才开办。
+全程线下脱产教学。
+学习时长共3个月，每周一至周五全天。
+北京地区提供免费食宿。
+上海地区不提供食宿，但每月提供600元食宿补贴，总计1800元。
+坚持课程完结后，提供1500元就业基金。
 </t>
+  </si>
+  <si>
+    <t>开店实战：电子商务基础，店铺搭建及开店技能养成，店铺特效装修，SEO核心解析，营销推广六剑式
+产品运营：市场定位，爆款打造
+视觉运营：电商影棚，微视频，UED实战
+流量运营：流量运营解析，平台活动运营，活动企划，广告营销推广
+全网运营：微店精细化运营，进阶天猫平台，跨境电商运营
+社群运营：公众号运营实战，微博碎片化传播，头条投放战略</t>
+  </si>
+  <si>
+    <t>爆款打造,活动企划,天猫平台,公众号运营实战</t>
+  </si>
+  <si>
+    <t>电商人才线下周末制班</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本课程针对无基础的人员转型电商类人才开办。
+全程线下脱产教学。
+学习时长共3个月，每周六、日。
+北京地区提供免费食宿。
+上海地区不提供食宿，但每月提供600元食宿补贴，总计1800元。
+坚持课程完结后，提供1500元就业基金。
+</t>
+  </si>
+  <si>
+    <t>互联网营销师线下培训班</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型电商类人才开办。
+全程线下脱产教学。
+学习时长共3.5个月，每周一至周五全天。
+北京地区提供免费食宿。
+上海地区不提供食宿，但每月提供600元食宿补贴，总计2100元。
+坚持课程完结后，提供1500元就业基金。
+就业薪资5500起
+就业后3年平均月薪15000元</t>
+  </si>
+  <si>
+    <t>课程概述及软件基础：PS软件工具介绍，综合性知识学习,PowerPoint
+营销建站:网站建设基础，网站策划,dedecms实战
+搜索引擎优化SEO:SEO基础，关键词策略，SEO专题，网站结构优化
+搜索引擎营销SEM：SEM入门，从0开始百度推广，移动端推广，投放技巧
+社会化媒体营销SMM，IM营销，EDM营销，百度系知识平台，团队合作
+电商运营EPM：淘宝解析，差异化产品，运营中的常见问题，团队组建</t>
+  </si>
+  <si>
+    <t>关键词策略,移动端推广,团队合作,差异化产品</t>
+  </si>
+  <si>
+    <t>WEB前端工程师线下培训班</t>
+  </si>
+  <si>
+    <t>前端工程师,岗位性价比高,行业男女比适中</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型电商类人才开办。
+全程线下脱产教学。
+学习时长共5个月，每周一至周五全天。
+北京地区提供免费食宿。
+上海地区不提供食宿，但每月提供600元食宿补贴，总计3000元。
+坚持课程完结后，提供1500元就业基金。
+就业薪资5500起
+就业后3年平均月薪13500元</t>
+  </si>
+  <si>
+    <t>网站重构：PC端网站布局，HTML5+CSS3基础
+前端交互：原生JavaScript交互效果开发，ES6，jQuery
+PC端全栈项目开发：PHP+MySQL，PHP高级应用
+移动端webAPP开发：Node，移动框架，H5高级
+大型项目架构：ThinkPHP框架、Laravel框架，Memcache缓存设计
+混合开发：微信公众号，微信小程序，React Native
+就业指导：企业面试前期准备及技巧、企业面试实践</t>
+  </si>
+  <si>
+    <t>HTML5+CSS3,JavaScript,Laravel框架,React Native</t>
+  </si>
+  <si>
+    <t>WEB前端工程师线上直播培训班</t>
+  </si>
+  <si>
+    <t>本课程针对无基础的人员转型电商类人才开办。
+全程线下脱产教学。
+全程线上非脱产直播教学。
+学习时长共5个月，工作日晚上、周6、周日。同步直播教学。
+坚持课程完结后，提供600元就业基金。
+就业薪资5500起
+就业后3年平均月薪13500元</t>
   </si>
 </sst>
 </file>
@@ -1360,29 +1627,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
@@ -1731,7 +1991,7 @@
     <col min="7" max="7" width="58.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="14.6296296296296" customWidth="1"/>
     <col min="10" max="10" width="21.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="15" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="12" customWidth="1"/>
     <col min="13" max="13" width="32.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1766,7 +2026,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1792,31 +2052,31 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="H2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
@@ -1830,34 +2090,34 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>34</v>
       </c>
       <c r="L3" t="s">
@@ -1871,7 +2131,7 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
@@ -1880,25 +2140,25 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="17" t="s">
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L4" t="s">
@@ -1912,7 +2172,7 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
@@ -1921,25 +2181,25 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>43</v>
       </c>
       <c r="L5" t="s">
@@ -1953,7 +2213,7 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
@@ -1962,25 +2222,25 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="H6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>48</v>
       </c>
       <c r="L6" t="s">
@@ -1994,7 +2254,7 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
@@ -2003,25 +2263,25 @@
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="17" t="s">
+      <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>53</v>
       </c>
       <c r="L7" t="s">
@@ -2035,7 +2295,7 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
@@ -2044,25 +2304,25 @@
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="17" t="s">
+      <c r="H8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>57</v>
       </c>
       <c r="L8" t="s">
@@ -2076,7 +2336,7 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
@@ -2085,25 +2345,25 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="17" t="s">
+      <c r="H9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>61</v>
       </c>
       <c r="L9" t="s">
@@ -2117,7 +2377,7 @@
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -2126,25 +2386,25 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="H10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L10" t="s">
@@ -2158,7 +2418,7 @@
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
@@ -2167,25 +2427,25 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="15" t="s">
+      <c r="H11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L11" t="s">
@@ -2199,7 +2459,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -2208,25 +2468,25 @@
       <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="15" t="s">
+      <c r="H12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L12" t="s">
@@ -2240,7 +2500,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
@@ -2249,25 +2509,25 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="15" t="s">
+      <c r="H13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L13" t="s">
@@ -2281,34 +2541,34 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="17" t="s">
+      <c r="H14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="14" t="s">
         <v>76</v>
       </c>
       <c r="L14" t="s">
@@ -2322,7 +2582,7 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C15" t="s">
@@ -2331,25 +2591,25 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="15" t="s">
+      <c r="H15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>79</v>
       </c>
       <c r="L15" t="s">
@@ -2363,7 +2623,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
@@ -2372,25 +2632,25 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="17" t="s">
+      <c r="H16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>82</v>
       </c>
       <c r="L16" t="s">
@@ -2404,7 +2664,7 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C17" t="s">
@@ -2413,25 +2673,25 @@
       <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="17" t="s">
+      <c r="H17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>86</v>
       </c>
       <c r="L17" t="s">
@@ -2445,7 +2705,7 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C18" t="s">
@@ -2454,25 +2714,25 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="17" t="s">
+      <c r="H18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="14" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
@@ -2486,7 +2746,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
@@ -2495,25 +2755,25 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="17" t="s">
+      <c r="H19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>92</v>
       </c>
       <c r="L19" t="s">
@@ -2527,7 +2787,7 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
@@ -2536,25 +2796,25 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="17" t="s">
+      <c r="H20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="14" t="s">
         <v>94</v>
       </c>
       <c r="L20" t="s">
@@ -2568,7 +2828,7 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
@@ -2577,25 +2837,25 @@
       <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="H21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L21" t="s">
@@ -2609,7 +2869,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
@@ -2618,25 +2878,25 @@
       <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="17" t="s">
+      <c r="H22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>101</v>
       </c>
       <c r="L22" t="s">
@@ -2650,7 +2910,7 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
@@ -2659,25 +2919,25 @@
       <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="15" t="s">
+      <c r="H23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L23" t="s">
@@ -2691,7 +2951,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
@@ -2700,25 +2960,25 @@
       <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="H24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L24" t="s">
@@ -2732,7 +2992,7 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
@@ -2741,25 +3001,25 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="17" t="s">
+      <c r="H25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="14" t="s">
         <v>53</v>
       </c>
       <c r="L25" t="s">
@@ -2773,7 +3033,7 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
@@ -2782,25 +3042,25 @@
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="17" t="s">
+      <c r="H26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="14" t="s">
         <v>112</v>
       </c>
       <c r="L26" t="s">
@@ -2814,7 +3074,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
@@ -2823,25 +3083,25 @@
       <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="17" t="s">
+      <c r="H27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="14" t="s">
         <v>116</v>
       </c>
       <c r="L27" t="s">
@@ -2855,7 +3115,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
@@ -2864,25 +3124,25 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="18" t="s">
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="17" t="s">
+      <c r="H28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="14" t="s">
         <v>119</v>
       </c>
       <c r="L28" t="s">
@@ -2896,7 +3156,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
@@ -2905,25 +3165,25 @@
       <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="17" t="s">
+      <c r="H29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L29" t="s">
@@ -2937,7 +3197,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -2946,25 +3206,25 @@
       <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="18" t="s">
+      <c r="F30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="17" t="s">
+      <c r="H30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="14" t="s">
         <v>127</v>
       </c>
       <c r="L30" t="s">
@@ -2978,7 +3238,7 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
@@ -2987,25 +3247,25 @@
       <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="F31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="17" t="s">
+      <c r="H31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="14" t="s">
         <v>131</v>
       </c>
       <c r="L31" t="s">
@@ -3019,7 +3279,7 @@
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C32" t="s">
@@ -3028,25 +3288,25 @@
       <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="17" t="s">
+      <c r="H32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="14" t="s">
         <v>94</v>
       </c>
       <c r="L32" t="s">
@@ -3060,7 +3320,7 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C33" t="s">
@@ -3069,25 +3329,25 @@
       <c r="D33" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="18" t="s">
+      <c r="F33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="17" t="s">
+      <c r="H33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="14" t="s">
         <v>138</v>
       </c>
       <c r="L33" t="s">
@@ -3101,34 +3361,34 @@
       <c r="A34" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="F34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="17" t="s">
+      <c r="H34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="L34" t="s">
@@ -3142,34 +3402,34 @@
       <c r="A35" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>143</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="18" t="s">
+      <c r="F35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="17" t="s">
+      <c r="H35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="14" t="s">
         <v>145</v>
       </c>
       <c r="L35" t="s">
@@ -3183,34 +3443,34 @@
       <c r="A36" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="18" t="s">
+      <c r="F36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="17" t="s">
+      <c r="H36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="14" t="s">
         <v>148</v>
       </c>
       <c r="L36" t="s">
@@ -3224,34 +3484,34 @@
       <c r="A37" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="18" t="s">
+      <c r="F37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="17" t="s">
+      <c r="H37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="14" t="s">
         <v>151</v>
       </c>
       <c r="L37" t="s">
@@ -3265,34 +3525,34 @@
       <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="18" t="s">
+      <c r="F38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="17" t="s">
+      <c r="H38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="14" t="s">
         <v>153</v>
       </c>
       <c r="L38" t="s">
@@ -3306,34 +3566,34 @@
       <c r="A39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="17" t="s">
+      <c r="H39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>155</v>
       </c>
       <c r="L39" t="s">
@@ -3347,34 +3607,34 @@
       <c r="A40" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="17" t="s">
+      <c r="H40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="14" t="s">
         <v>158</v>
       </c>
       <c r="L40" t="s">
@@ -3388,34 +3648,34 @@
       <c r="A41" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="18" t="s">
+      <c r="F41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="17" t="s">
+      <c r="H41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>138</v>
       </c>
       <c r="L41" t="s">
@@ -3429,34 +3689,34 @@
       <c r="A42" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>160</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="18" t="s">
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="17" t="s">
+      <c r="H42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="14" t="s">
         <v>161</v>
       </c>
       <c r="L42" t="s">
@@ -3470,34 +3730,34 @@
       <c r="A43" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="18" t="s">
+      <c r="F43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="15" t="s">
+      <c r="H43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L43" t="s">
@@ -3605,7 +3865,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -3625,31 +3885,31 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="H2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
@@ -3666,7 +3926,7 @@
       <c r="A3" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C3" t="s">
@@ -3675,31 +3935,31 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="13" t="s">
         <v>169</v>
       </c>
       <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>170</v>
       </c>
       <c r="N3" t="s">
@@ -3710,7 +3970,7 @@
       <c r="A4" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C4" t="s">
@@ -3719,31 +3979,31 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="13" t="s">
         <v>174</v>
       </c>
       <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="11" t="s">
         <v>170</v>
       </c>
       <c r="N4" t="s">
@@ -3754,7 +4014,7 @@
       <c r="A5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C5" t="s">
@@ -3763,31 +4023,31 @@
       <c r="D5" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="13" t="s">
         <v>177</v>
       </c>
       <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="11" t="s">
         <v>170</v>
       </c>
       <c r="N5" t="s">
@@ -3801,31 +4061,31 @@
       <c r="B6" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="H6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L6" t="s">
@@ -3842,7 +4102,7 @@
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
@@ -3851,25 +4111,25 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="17" t="s">
+      <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L7" t="s">
@@ -3886,7 +4146,7 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
@@ -3895,25 +4155,25 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="17" t="s">
+      <c r="H8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>43</v>
       </c>
       <c r="L8" t="s">
@@ -3930,7 +4190,7 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
@@ -3939,25 +4199,25 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="H9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L9" t="s">
@@ -3974,7 +4234,7 @@
       <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -3983,25 +4243,25 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="H10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L10" t="s">
@@ -4018,7 +4278,7 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C11" t="s">
@@ -4027,25 +4287,25 @@
       <c r="D11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="15" t="s">
+      <c r="H11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L11" t="s">
@@ -4062,7 +4322,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -4071,25 +4331,25 @@
       <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="15" t="s">
+      <c r="H12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L12" t="s">
@@ -4106,7 +4366,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
@@ -4115,25 +4375,25 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="17" t="s">
+      <c r="H13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="14" t="s">
         <v>119</v>
       </c>
       <c r="L13" t="s">
@@ -4150,34 +4410,34 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>143</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="17" t="s">
+      <c r="H14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="14" t="s">
         <v>145</v>
       </c>
       <c r="L14" t="s">
@@ -4194,34 +4454,34 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="17" t="s">
+      <c r="I15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>184</v>
       </c>
       <c r="L15" t="s">
@@ -4238,34 +4498,34 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="17" t="s">
+      <c r="I16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>34</v>
       </c>
       <c r="L16" t="s">
@@ -4282,37 +4542,37 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="17" t="s">
+      <c r="I17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="14" t="s">
         <v>46</v>
       </c>
       <c r="M17" t="s">
@@ -4323,7 +4583,7 @@
       </c>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="13"/>
+      <c r="G18" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4352,26 +4612,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="30.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="22.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="22.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="32.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.55555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.11111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88888888888889" style="1"/>
+    <col min="9" max="9" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="10" max="10" width="46.8888888888889" style="1" customWidth="1"/>
+    <col min="11" max="11" width="59.6666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88888888888889" style="1"/>
+    <col min="13" max="13" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" ht="28.8" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4402,7 +4667,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -4415,7 +4680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="201.6" spans="1:14">
+    <row r="2" ht="129.6" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>187</v>
       </c>
@@ -4443,10 +4708,10 @@
       <c r="I2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>194</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -4459,24 +4724,24 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" ht="158.4" spans="1:14">
+    <row r="3" ht="100.8" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B3" s="2">
-        <v>5800</v>
+        <v>8800</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
@@ -4487,10 +4752,10 @@
       <c r="I3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>194</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -4503,23 +4768,613 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10" s="8"/>
+    <row r="4" s="1" customFormat="1" ht="144" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="2">
+        <v>22800</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="144" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10800</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="187.2" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="2">
+        <v>22800</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="172.8" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11800</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="144" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20800</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="144" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10800</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="115.2" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="100.8" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5800</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="115.2" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="2">
+        <v>14300</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="115.2" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="2">
+        <v>14300</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="144" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="2">
+        <v>18800</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="129.6" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21800</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="115.2" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10800</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
     <hyperlink ref="G3" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G4" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G5" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G6" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G7" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G8" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G9" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G10" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G11" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G12" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G13" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G14" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G15" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G16" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444" activeTab="2"/>
+    <workbookView windowWidth="28660" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>百度</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <r>
@@ -582,9 +585,6 @@
     </r>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>客服</t>
   </si>
   <si>
@@ -674,6 +674,9 @@
     <t>上海/北京</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>0基础,推荐就业,项目实战，就业薪资5500起</t>
   </si>
   <si>
@@ -694,9 +697,6 @@
   </si>
   <si>
     <t>Java,Python,Orcale,Mysql,Linux,LoadRunner,QTP</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>0基础软件测试直播就业班</t>
@@ -980,9 +980,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1033,45 +1033,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,22 +1055,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,17 +1102,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1154,7 +1139,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,13 +1188,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,91 +1260,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,13 +1296,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,7 +1332,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,37 +1368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,6 +1379,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1399,59 +1456,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1470,160 +1479,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1635,7 +1635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1645,67 +1645,67 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1972,7 +1972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P43"/>
   <sheetViews>
@@ -1980,19 +1980,19 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.4259259259259" customWidth="1"/>
-    <col min="2" max="2" width="16.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="19.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="19.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="16.3785714285714" customWidth="1"/>
+    <col min="3" max="3" width="19.6285714285714" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5740740740741" customWidth="1"/>
+    <col min="5" max="5" width="22.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="58.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="14.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="21.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="12" customWidth="1"/>
-    <col min="13" max="13" width="32.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="58.4428571428571" customWidth="1"/>
+    <col min="8" max="8" width="14.6285714285714" customWidth="1"/>
+    <col min="10" max="10" width="21.2214285714286" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="10" customWidth="1"/>
+    <col min="13" max="13" width="32.7785714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2026,7 +2026,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -2067,7 +2067,7 @@
       <c r="G2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -2076,7 +2076,7 @@
       <c r="J2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
@@ -2108,7 +2108,7 @@
       <c r="G3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -2149,7 +2149,7 @@
       <c r="G4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -2190,7 +2190,7 @@
       <c r="G5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -2231,7 +2231,7 @@
       <c r="G6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -2240,7 +2240,7 @@
       <c r="J6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="L6" t="s">
@@ -2272,7 +2272,7 @@
       <c r="G7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -2313,7 +2313,7 @@
       <c r="G8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -2354,7 +2354,7 @@
       <c r="G9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -2395,7 +2395,7 @@
       <c r="G10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -2404,7 +2404,7 @@
       <c r="J10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>66</v>
       </c>
       <c r="L10" t="s">
@@ -2436,7 +2436,7 @@
       <c r="G11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2445,7 +2445,7 @@
       <c r="J11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>66</v>
       </c>
       <c r="L11" t="s">
@@ -2477,7 +2477,7 @@
       <c r="G12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -2486,7 +2486,7 @@
       <c r="J12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="10" t="s">
         <v>66</v>
       </c>
       <c r="L12" t="s">
@@ -2518,7 +2518,7 @@
       <c r="G13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -2527,7 +2527,7 @@
       <c r="J13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>66</v>
       </c>
       <c r="L13" t="s">
@@ -2559,7 +2559,7 @@
       <c r="G14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="6" t="s">
@@ -2600,7 +2600,7 @@
       <c r="G15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="6" t="s">
@@ -2609,7 +2609,7 @@
       <c r="J15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="10" t="s">
         <v>79</v>
       </c>
       <c r="L15" t="s">
@@ -2641,7 +2641,7 @@
       <c r="G16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -2682,7 +2682,7 @@
       <c r="G17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -2723,7 +2723,7 @@
       <c r="G18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="6" t="s">
@@ -2764,7 +2764,7 @@
       <c r="G19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -2805,7 +2805,7 @@
       <c r="G20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -2846,7 +2846,7 @@
       <c r="G21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="6" t="s">
@@ -2855,7 +2855,7 @@
       <c r="J21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="10" t="s">
         <v>66</v>
       </c>
       <c r="L21" t="s">
@@ -2887,7 +2887,7 @@
       <c r="G22" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="6" t="s">
@@ -2928,7 +2928,7 @@
       <c r="G23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="6" t="s">
@@ -2937,7 +2937,7 @@
       <c r="J23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="10" t="s">
         <v>66</v>
       </c>
       <c r="L23" t="s">
@@ -2969,7 +2969,7 @@
       <c r="G24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="6" t="s">
@@ -2978,7 +2978,7 @@
       <c r="J24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="10" t="s">
         <v>66</v>
       </c>
       <c r="L24" t="s">
@@ -3010,7 +3010,7 @@
       <c r="G25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="6" t="s">
@@ -3051,7 +3051,7 @@
       <c r="G26" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I26" s="6" t="s">
@@ -3092,7 +3092,7 @@
       <c r="G27" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="6" t="s">
@@ -3133,7 +3133,7 @@
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -3174,7 +3174,7 @@
       <c r="G29" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="6" t="s">
@@ -3215,7 +3215,7 @@
       <c r="G30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I30" s="6" t="s">
@@ -3256,7 +3256,7 @@
       <c r="G31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -3297,7 +3297,7 @@
       <c r="G32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="6" t="s">
@@ -3338,7 +3338,7 @@
       <c r="G33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="6" t="s">
@@ -3379,7 +3379,7 @@
       <c r="G34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="6" t="s">
@@ -3420,7 +3420,7 @@
       <c r="G35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="6" t="s">
@@ -3461,7 +3461,7 @@
       <c r="G36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I36" s="6" t="s">
@@ -3502,7 +3502,7 @@
       <c r="G37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="6" t="s">
@@ -3543,7 +3543,7 @@
       <c r="G38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="6" t="s">
@@ -3584,7 +3584,7 @@
       <c r="G39" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -3625,7 +3625,7 @@
       <c r="G40" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="6" t="s">
@@ -3666,7 +3666,7 @@
       <c r="G41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="6" t="s">
@@ -3707,7 +3707,7 @@
       <c r="G42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I42" s="6" t="s">
@@ -3748,7 +3748,7 @@
       <c r="G43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I43" s="6" t="s">
@@ -3757,7 +3757,7 @@
       <c r="J43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="10" t="s">
         <v>26</v>
       </c>
       <c r="L43" t="s">
@@ -3819,19 +3819,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.13571428571429" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.1388888888889" customWidth="1"/>
-    <col min="7" max="7" width="60.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="23.1357142857143" customWidth="1"/>
+    <col min="7" max="7" width="60.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3857,25 +3857,25 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3897,29 +3897,29 @@
       <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
+      <c r="H2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3941,28 +3941,28 @@
       <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
+      <c r="I3" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="K3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="N3" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3985,28 +3985,28 @@
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
+      <c r="I4" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="N4" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4029,28 +4029,28 @@
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>24</v>
+      <c r="I5" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="N5" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4073,29 +4073,29 @@
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>24</v>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4117,29 +4117,29 @@
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>24</v>
+      <c r="H7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>31</v>
       </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4161,29 +4161,29 @@
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>24</v>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
       <c r="N8" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4205,29 +4205,29 @@
       <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>24</v>
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>63</v>
       </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
       <c r="N9" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4249,29 +4249,29 @@
       <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>24</v>
+      <c r="H10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>63</v>
       </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4293,29 +4293,29 @@
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>24</v>
+      <c r="H11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>70</v>
       </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
       <c r="N11" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4337,29 +4337,29 @@
       <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>24</v>
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>73</v>
       </c>
-      <c r="M12" t="s">
-        <v>27</v>
-      </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4381,29 +4381,29 @@
       <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>24</v>
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>31</v>
       </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4425,29 +4425,29 @@
       <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>24</v>
+      <c r="H14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4469,29 +4469,29 @@
       <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>24</v>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>31</v>
       </c>
-      <c r="M15" t="s">
-        <v>27</v>
-      </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4513,29 +4513,29 @@
       <c r="F16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>24</v>
+      <c r="H16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>31</v>
       </c>
-      <c r="M16" t="s">
-        <v>27</v>
-      </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4548,7 +4548,7 @@
       <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -4557,33 +4557,33 @@
       <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>24</v>
+      <c r="H17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M17" t="s">
-        <v>27</v>
-      </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="10"/>
+      <c r="G18" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4610,33 +4610,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.55555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.11111111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88888888888889" style="1"/>
-    <col min="9" max="9" width="14.2222222222222" style="1" customWidth="1"/>
-    <col min="10" max="10" width="46.8888888888889" style="1" customWidth="1"/>
-    <col min="11" max="11" width="59.6666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88888888888889" style="1"/>
-    <col min="13" max="13" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="10.2214285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.66428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.55714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.11428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2214285714286" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88571428571429" style="1"/>
+    <col min="10" max="10" width="14.2214285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.8857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="59.6642857142857" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88571428571429" style="1"/>
+    <col min="14" max="14" width="14.1142857142857" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88571428571429" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:14">
+    <row r="1" ht="36" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4659,28 +4659,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" ht="129.6" spans="1:14">
+    </row>
+    <row r="2" ht="144" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>187</v>
       </c>
@@ -4702,29 +4702,29 @@
       <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>193</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" ht="100.8" spans="1:14">
+    <row r="3" ht="108" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>197</v>
       </c>
@@ -4746,29 +4746,29 @@
       <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="144" spans="1:14">
+    <row r="4" s="1" customFormat="1" ht="162" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>203</v>
       </c>
@@ -4790,29 +4790,29 @@
       <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="144" spans="1:14">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="162" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>208</v>
       </c>
@@ -4834,29 +4834,29 @@
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="187.2" spans="1:14">
+    </row>
+    <row r="6" s="1" customFormat="1" ht="198" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>210</v>
       </c>
@@ -4878,29 +4878,29 @@
       <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="172.8" spans="1:14">
+    </row>
+    <row r="7" s="1" customFormat="1" ht="198" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>215</v>
       </c>
@@ -4922,29 +4922,29 @@
       <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="144" spans="1:14">
+    </row>
+    <row r="8" s="1" customFormat="1" ht="162" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>217</v>
       </c>
@@ -4966,29 +4966,29 @@
       <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="144" spans="1:14">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="162" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>217</v>
       </c>
@@ -5010,29 +5010,29 @@
       <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="115.2" spans="1:14">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="126" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>223</v>
       </c>
@@ -5054,29 +5054,29 @@
       <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="100.8" spans="1:14">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="108" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>223</v>
       </c>
@@ -5098,29 +5098,29 @@
       <c r="G11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="115.2" spans="1:14">
+    </row>
+    <row r="12" s="1" customFormat="1" ht="126" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>229</v>
       </c>
@@ -5142,29 +5142,29 @@
       <c r="G12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="115.2" spans="1:14">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="126" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>234</v>
       </c>
@@ -5186,26 +5186,26 @@
       <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="144" spans="1:14">
@@ -5230,29 +5230,29 @@
       <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="129.6" spans="1:14">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="162" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>240</v>
       </c>
@@ -5274,29 +5274,29 @@
       <c r="G15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="115.2" spans="1:14">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="144" spans="1:14">
       <c r="A16" s="2" t="s">
         <v>245</v>
       </c>
@@ -5318,26 +5318,26 @@
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5364,7 +5364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5372,7 +5372,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="18"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9444" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="train" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="edu" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
   <si>
     <t>title</t>
   </si>
@@ -973,18 +973,592 @@
 就业薪资5500起
 就业后3年平均月薪13500元</t>
   </si>
+  <si>
+    <t>高中学历升大专学历</t>
+  </si>
+  <si>
+    <t>中国矿大</t>
+  </si>
+  <si>
+    <t>线上教课</t>
+  </si>
+  <si>
+    <t>通过率高</t>
+  </si>
+  <si>
+    <t>2.5学年制</t>
+  </si>
+  <si>
+    <t>线下手续少,学历学信网可查,教学时间对生活影响小,真实可靠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本课程针高中及同等学历的学生，提升学历至大专学历。
+全程线上非脱产学习。
+学习时长2.5个学年。学历学信网可查。
+</t>
+  </si>
+  <si>
+    <r>
+      <t>中国矿业大学（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>China University of Mining and Technology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），简称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，坐落于有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五省通衢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之称的江苏省</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徐州市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教育部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直属的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全国重点大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教育部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江苏省人民政府</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家安全生产监督管理总局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共建高校，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是首批列入国家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>211</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>985</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卓越工程师教育计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重点建设的高校、国家首批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双一流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>世界一流学科建设高校、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高水平行业特色大学优质资源共享联盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成员，也是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家大学生创新性实验计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家建设高水平大学公派研究生项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海外高层次人才引进计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实施高校。</t>
+    </r>
+  </si>
+  <si>
+    <t>2.5学年,学信网可查,收费透明,学校背景好</t>
+  </si>
+  <si>
+    <t>初中学历升大专学历</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本课程针初中及同等学历的学生，提升学历至大专学历。
+全程线上非脱产学习。
+学习时长2.5个学年。学历学信网可查。
+</t>
+  </si>
+  <si>
+    <t>升大专学历</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本课程针初中以下及同等学历的学生，提升学历至大专学历。
+全程线上非脱产学习。
+学习时长2.5个学年。学历学信网可查。
+</t>
+  </si>
+  <si>
+    <t>专升本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本课程针大专及同等学历的学生，提升学历至大专学历。
+全程线上非脱产学习。
+学习时长2.5个学年。学历学信网可查。
+</t>
+  </si>
+  <si>
+    <t>湖南医药学院</t>
+  </si>
+  <si>
+    <t>湖南医药学院（Hunan University of Medicine），坐落于湖南省怀化市，是一所国家公办的全日制普通医学本科院校，直属湖南省教育厅，入选卓越医生教育培养计划。
+学校肇始于1912年，前身为留美归国华侨、著名医学教育家、公共卫生学家颜福庆先生创立的长沙红十字会看护训练所，1924年正式建立长沙仁术护病学校。2000年升格为怀化医学高等专科学校。2014年5月，经教育部批准升格为湖南医药学院。</t>
+  </si>
+  <si>
+    <t>2.5学年,学信网可查,收费透明,入学率高</t>
+  </si>
+  <si>
+    <t>长沙医学院</t>
+  </si>
+  <si>
+    <t>长沙医学院是经国家教育部批准的民办全日制普通高等学校，其前身为湘南中等卫生职业技术学校，2005年经国家教育部批准升格为长沙医学院。
+长沙医学院由何彬生创办，1996年由湘南中等卫生职业技术学校更名为湘南卫生中等专业学校，1999年升格为湘南医学高等专科学校。2006年获得湖南省十佳民办学校称号，2011年通过国家教育部本科教学工作合格评估，2015年接受教育部临床专业认证评估通过。</t>
+  </si>
+  <si>
+    <t>2.5学年,学信网可查,师资能力强</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1580,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1032,8 +1612,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,6 +1628,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,15 +1670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1070,17 +1680,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1101,8 +1703,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,54 +1734,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF136EC2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="10.5"/>
+      <color rgb="FF136EC2"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1188,7 +1786,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,49 +1954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,121 +1966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,44 +1980,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1456,6 +2027,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1464,170 +2077,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1635,7 +2233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1644,68 +2245,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1972,7 +2576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P43"/>
   <sheetViews>
@@ -1980,19 +2584,19 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="16.3785714285714" customWidth="1"/>
-    <col min="3" max="3" width="19.6285714285714" customWidth="1"/>
+    <col min="1" max="1" width="19.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="16.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="19.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="22.5740740740741" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="58.4428571428571" customWidth="1"/>
-    <col min="8" max="8" width="14.6285714285714" customWidth="1"/>
-    <col min="10" max="10" width="21.2214285714286" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="10" customWidth="1"/>
-    <col min="13" max="13" width="32.7785714285714" customWidth="1"/>
+    <col min="7" max="7" width="58.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="14.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="21.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="12" customWidth="1"/>
+    <col min="13" max="13" width="32.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2026,7 +2630,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -2052,31 +2656,31 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
@@ -2090,34 +2694,34 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="16" t="s">
         <v>34</v>
       </c>
       <c r="L3" t="s">
@@ -2131,7 +2735,7 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
@@ -2140,25 +2744,25 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="16" t="s">
         <v>38</v>
       </c>
       <c r="L4" t="s">
@@ -2172,7 +2776,7 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
@@ -2181,25 +2785,25 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="16" t="s">
         <v>43</v>
       </c>
       <c r="L5" t="s">
@@ -2213,7 +2817,7 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
@@ -2222,25 +2826,25 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="12" t="s">
         <v>48</v>
       </c>
       <c r="L6" t="s">
@@ -2254,7 +2858,7 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
@@ -2263,25 +2867,25 @@
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="16" t="s">
         <v>53</v>
       </c>
       <c r="L7" t="s">
@@ -2295,7 +2899,7 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
@@ -2304,25 +2908,25 @@
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="16" t="s">
         <v>57</v>
       </c>
       <c r="L8" t="s">
@@ -2336,7 +2940,7 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
@@ -2345,25 +2949,25 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="16" t="s">
         <v>61</v>
       </c>
       <c r="L9" t="s">
@@ -2377,7 +2981,7 @@
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -2386,25 +2990,25 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L10" t="s">
@@ -2418,7 +3022,7 @@
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
@@ -2427,25 +3031,25 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L11" t="s">
@@ -2459,7 +3063,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -2468,25 +3072,25 @@
       <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L12" t="s">
@@ -2500,7 +3104,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
@@ -2509,25 +3113,25 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L13" t="s">
@@ -2541,34 +3145,34 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="16" t="s">
         <v>76</v>
       </c>
       <c r="L14" t="s">
@@ -2582,7 +3186,7 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C15" t="s">
@@ -2591,25 +3195,25 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="12" t="s">
         <v>79</v>
       </c>
       <c r="L15" t="s">
@@ -2623,7 +3227,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
@@ -2632,25 +3236,25 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="16" t="s">
         <v>82</v>
       </c>
       <c r="L16" t="s">
@@ -2664,7 +3268,7 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C17" t="s">
@@ -2673,25 +3277,25 @@
       <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="16" t="s">
         <v>86</v>
       </c>
       <c r="L17" t="s">
@@ -2705,7 +3309,7 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C18" t="s">
@@ -2714,25 +3318,25 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="H18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="16" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
@@ -2746,7 +3350,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
@@ -2755,25 +3359,25 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="16" t="s">
         <v>92</v>
       </c>
       <c r="L19" t="s">
@@ -2787,7 +3391,7 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
@@ -2796,25 +3400,25 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="16" t="s">
         <v>94</v>
       </c>
       <c r="L20" t="s">
@@ -2828,7 +3432,7 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
@@ -2837,25 +3441,25 @@
       <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L21" t="s">
@@ -2869,7 +3473,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
@@ -2878,25 +3482,25 @@
       <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="H22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="16" t="s">
         <v>101</v>
       </c>
       <c r="L22" t="s">
@@ -2910,7 +3514,7 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
@@ -2919,25 +3523,25 @@
       <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="H23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L23" t="s">
@@ -2951,7 +3555,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
@@ -2960,25 +3564,25 @@
       <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="H24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L24" t="s">
@@ -2992,7 +3596,7 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
@@ -3001,25 +3605,25 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="H25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="16" t="s">
         <v>53</v>
       </c>
       <c r="L25" t="s">
@@ -3033,7 +3637,7 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
@@ -3042,25 +3646,25 @@
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="H26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="16" t="s">
         <v>112</v>
       </c>
       <c r="L26" t="s">
@@ -3074,7 +3678,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
@@ -3083,25 +3687,25 @@
       <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="H27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="16" t="s">
         <v>116</v>
       </c>
       <c r="L27" t="s">
@@ -3115,7 +3719,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
@@ -3124,25 +3728,25 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="H28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="16" t="s">
         <v>119</v>
       </c>
       <c r="L28" t="s">
@@ -3156,7 +3760,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
@@ -3165,25 +3769,25 @@
       <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="H29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="16" t="s">
         <v>124</v>
       </c>
       <c r="L29" t="s">
@@ -3197,7 +3801,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -3206,25 +3810,25 @@
       <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="H30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="16" t="s">
         <v>127</v>
       </c>
       <c r="L30" t="s">
@@ -3238,7 +3842,7 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
@@ -3247,25 +3851,25 @@
       <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="16" t="s">
         <v>131</v>
       </c>
       <c r="L31" t="s">
@@ -3279,7 +3883,7 @@
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C32" t="s">
@@ -3288,25 +3892,25 @@
       <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="16" t="s">
         <v>94</v>
       </c>
       <c r="L32" t="s">
@@ -3320,7 +3924,7 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C33" t="s">
@@ -3329,25 +3933,25 @@
       <c r="D33" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="H33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="16" t="s">
         <v>138</v>
       </c>
       <c r="L33" t="s">
@@ -3361,34 +3965,34 @@
       <c r="A34" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="H34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="16" t="s">
         <v>34</v>
       </c>
       <c r="L34" t="s">
@@ -3402,34 +4006,34 @@
       <c r="A35" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="6" t="s">
+      <c r="H35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="16" t="s">
         <v>145</v>
       </c>
       <c r="L35" t="s">
@@ -3443,34 +4047,34 @@
       <c r="A36" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="6" t="s">
+      <c r="H36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="16" t="s">
         <v>148</v>
       </c>
       <c r="L36" t="s">
@@ -3484,34 +4088,34 @@
       <c r="A37" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="6" t="s">
+      <c r="H37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="16" t="s">
         <v>151</v>
       </c>
       <c r="L37" t="s">
@@ -3525,34 +4129,34 @@
       <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>152</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="6" t="s">
+      <c r="H38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="16" t="s">
         <v>153</v>
       </c>
       <c r="L38" t="s">
@@ -3566,34 +4170,34 @@
       <c r="A39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="6" t="s">
+      <c r="H39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="16" t="s">
         <v>155</v>
       </c>
       <c r="L39" t="s">
@@ -3607,34 +4211,34 @@
       <c r="A40" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="6" t="s">
+      <c r="H40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="16" t="s">
         <v>158</v>
       </c>
       <c r="L40" t="s">
@@ -3648,34 +4252,34 @@
       <c r="A41" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="6" t="s">
+      <c r="H41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="16" t="s">
         <v>138</v>
       </c>
       <c r="L41" t="s">
@@ -3689,34 +4293,34 @@
       <c r="A42" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="6" t="s">
+      <c r="H42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="16" t="s">
         <v>161</v>
       </c>
       <c r="L42" t="s">
@@ -3730,34 +4334,34 @@
       <c r="A43" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="6" t="s">
+      <c r="H43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L43" t="s">
@@ -3819,19 +4423,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13571428571429" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.1357142857143" customWidth="1"/>
-    <col min="7" max="7" width="60.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="23.1388888888889" customWidth="1"/>
+    <col min="7" max="7" width="60.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3868,7 +4472,7 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="M1" t="s">
@@ -3885,34 +4489,34 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
@@ -3926,7 +4530,7 @@
       <c r="A3" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C3" t="s">
@@ -3935,34 +4539,34 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="15" t="s">
         <v>170</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3970,7 +4574,7 @@
       <c r="A4" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C4" t="s">
@@ -3979,34 +4583,34 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="15" t="s">
         <v>174</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4014,7 +4618,7 @@
       <c r="A5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C5" t="s">
@@ -4023,34 +4627,34 @@
       <c r="D5" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="15" t="s">
         <v>177</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4061,34 +4665,34 @@
       <c r="B6" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="12" t="s">
         <v>26</v>
       </c>
       <c r="M6" t="s">
@@ -4102,7 +4706,7 @@
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
@@ -4111,28 +4715,28 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H7" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="16" t="s">
         <v>38</v>
       </c>
       <c r="M7" t="s">
@@ -4146,7 +4750,7 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
@@ -4155,28 +4759,28 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="16" t="s">
         <v>43</v>
       </c>
       <c r="M8" t="s">
@@ -4190,7 +4794,7 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
@@ -4199,28 +4803,28 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H9" t="s">
         <v>163</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="M9" t="s">
@@ -4234,7 +4838,7 @@
       <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -4243,28 +4847,28 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H10" t="s">
         <v>163</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="12" t="s">
         <v>66</v>
       </c>
       <c r="M10" t="s">
@@ -4278,7 +4882,7 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C11" t="s">
@@ -4287,28 +4891,28 @@
       <c r="D11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H11" t="s">
         <v>163</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="M11" t="s">
@@ -4322,7 +4926,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -4331,28 +4935,28 @@
       <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H12" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="I12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="M12" t="s">
@@ -4366,7 +4970,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
@@ -4375,28 +4979,28 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H13" t="s">
         <v>163</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="16" t="s">
         <v>119</v>
       </c>
       <c r="M13" t="s">
@@ -4410,37 +5014,37 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H14" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="16" t="s">
         <v>145</v>
       </c>
       <c r="M14" t="s">
@@ -4454,37 +5058,37 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>182</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H15" t="s">
         <v>163</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="16" t="s">
         <v>184</v>
       </c>
       <c r="M15" t="s">
@@ -4498,37 +5102,37 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H16" t="s">
         <v>163</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="16" t="s">
         <v>34</v>
       </c>
       <c r="M16" t="s">
@@ -4542,40 +5146,40 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H17" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="16" t="s">
         <v>46</v>
       </c>
       <c r="N17" t="s">
@@ -4583,7 +5187,7 @@
       </c>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="9"/>
+      <c r="G18" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4610,33 +5214,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.2214285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.66428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.55714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.11428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2214285714286" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88571428571429" style="1"/>
-    <col min="10" max="10" width="14.2214285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.8857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="59.6642857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88571428571429" style="1"/>
-    <col min="14" max="14" width="14.1142857142857" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88571428571429" style="1"/>
+    <col min="1" max="1" width="10.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.55555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.11111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88888888888889" style="1"/>
+    <col min="10" max="10" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="12" width="59.6666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88888888888889" style="1"/>
+    <col min="14" max="14" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:14">
+    <row r="1" ht="28.8" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4680,7 +5284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="144" spans="1:14">
+    <row r="2" ht="129.6" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>187</v>
       </c>
@@ -4699,22 +5303,22 @@
       <c r="F2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -4724,7 +5328,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" ht="108" spans="1:14">
+    <row r="3" ht="100.8" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>197</v>
       </c>
@@ -4743,22 +5347,22 @@
       <c r="F3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -4768,7 +5372,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="162" spans="1:14">
+    <row r="4" s="1" customFormat="1" ht="144" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>203</v>
       </c>
@@ -4787,22 +5391,22 @@
       <c r="F4" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>206</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -4812,7 +5416,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="162" spans="1:14">
+    <row r="5" s="1" customFormat="1" ht="144" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>208</v>
       </c>
@@ -4831,22 +5435,22 @@
       <c r="F5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>206</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -4856,7 +5460,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="198" spans="1:14">
+    <row r="6" s="1" customFormat="1" ht="187.2" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>210</v>
       </c>
@@ -4875,22 +5479,22 @@
       <c r="F6" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>213</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -4900,7 +5504,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="198" spans="1:14">
+    <row r="7" s="1" customFormat="1" ht="172.8" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>215</v>
       </c>
@@ -4919,22 +5523,22 @@
       <c r="F7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="6" t="s">
         <v>213</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -4944,7 +5548,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="162" spans="1:14">
+    <row r="8" s="1" customFormat="1" ht="144" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>217</v>
       </c>
@@ -4963,22 +5567,22 @@
       <c r="F8" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>220</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -4988,7 +5592,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="162" spans="1:14">
+    <row r="9" s="1" customFormat="1" ht="144" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>217</v>
       </c>
@@ -5007,22 +5611,22 @@
       <c r="F9" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="6" t="s">
         <v>220</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -5032,7 +5636,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="126" spans="1:14">
+    <row r="10" s="1" customFormat="1" ht="115.2" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>223</v>
       </c>
@@ -5051,22 +5655,22 @@
       <c r="F10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="6" t="s">
         <v>226</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -5076,7 +5680,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="108" spans="1:14">
+    <row r="11" s="1" customFormat="1" ht="100.8" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>223</v>
       </c>
@@ -5095,22 +5699,22 @@
       <c r="F11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="6" t="s">
         <v>226</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -5120,7 +5724,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="126" spans="1:14">
+    <row r="12" s="1" customFormat="1" ht="115.2" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>229</v>
       </c>
@@ -5139,22 +5743,22 @@
       <c r="F12" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="6" t="s">
         <v>232</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -5164,7 +5768,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="126" spans="1:14">
+    <row r="13" s="1" customFormat="1" ht="115.2" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>234</v>
       </c>
@@ -5183,22 +5787,22 @@
       <c r="F13" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="6" t="s">
         <v>232</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -5227,22 +5831,22 @@
       <c r="F14" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="6" t="s">
         <v>238</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -5252,7 +5856,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="162" spans="1:14">
+    <row r="15" s="1" customFormat="1" ht="129.6" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>240</v>
       </c>
@@ -5271,22 +5875,22 @@
       <c r="F15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="6" t="s">
         <v>243</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -5296,7 +5900,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="144" spans="1:14">
+    <row r="16" s="1" customFormat="1" ht="115.2" spans="1:14">
       <c r="A16" s="2" t="s">
         <v>245</v>
       </c>
@@ -5315,22 +5919,22 @@
       <c r="F16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="6" t="s">
         <v>243</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -5364,16 +5968,611 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="J13:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="6.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="6.33333333333333" customWidth="1"/>
+    <col min="8" max="8" width="6.11111111111111" customWidth="1"/>
+    <col min="10" max="10" width="23.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="34.5555555555556" customWidth="1"/>
+    <col min="12" max="12" width="54.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="129.6" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="129.6" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="129.6" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" ht="129.6" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="3">
+        <v>13000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" ht="115.2" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" ht="115.2" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" ht="115.2" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" ht="115.2" spans="1:14">
+      <c r="A9" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="3">
+        <v>13000</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" ht="115.2" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" ht="115.2" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" ht="115.2" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" ht="115.2" spans="1:14">
+      <c r="A13" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="3">
+        <v>13000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G3" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G4" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G5" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G6" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G7" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G8" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G9" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G10" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G11" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G12" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G13" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -5973,7 +5973,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="J13:N13"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9444" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="train" sheetId="3" r:id="rId3"/>
     <sheet name="edu" sheetId="4" r:id="rId4"/>
+    <sheet name="jobadd" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
   <si>
     <t>title</t>
   </si>
@@ -513,6 +515,9 @@
     <t>焊工类培训学校实习生</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/zhongji.jpg</t>
+  </si>
+  <si>
     <t>J</t>
   </si>
   <si>
@@ -523,6 +528,9 @@
   </si>
   <si>
     <t>百度</t>
+  </si>
+  <si>
+    <t>http://www.lanxiangren.net/static/logo/baidu.jpg</t>
   </si>
   <si>
     <t>W</t>
@@ -602,6 +610,9 @@
     <t>上海/杭州</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/pingan.jpg</t>
+  </si>
+  <si>
     <t>中国平安保险（集团）股份有限公司（以下简称“中国平安” ，“平安”，“公司”，“集团”）于1988年诞生于深圳蛇口，是中国第一家股份制保险企业，至今已经发展成为金融保险、银行、投资等金融业务为一体的整合、紧密、多元的综合金融服务集团。 [1] 
 2017年6月，《2017年BrandZ最具价值全球品牌100强》公布，中国平安排名第61位； [2]  7月31日，《财富》中国500强排行榜发布，中国平安保险（集团）股份有限公司排名第五。 [3]  2017年9月，中国平安保险（集团）股份有限公司在2017中国企业500强中，排名第八。 [4]  2018年《财富》世界500强排行榜第29名。</t>
   </si>
@@ -659,6 +670,290 @@
     <t>主要从事笔记本电脑、手机等电子信息产品的研发与制造，是全球五大笔记本电脑生产企业之一；昌硕科技（上海）有限公司，主要从事手机电脑开发生产与制造；钧硕电子科技（上海）有限公司，主要从事电子信息产品相关精密模具的设计与制造；华谦商贸（上海）有限公司，主要从事IT相关产品的内销服务。</t>
   </si>
   <si>
+    <t>安检员</t>
+  </si>
+  <si>
+    <t>5000起/月</t>
+  </si>
+  <si>
+    <t>上海虹桥机场</t>
+  </si>
+  <si>
+    <t>18-36岁</t>
+  </si>
+  <si>
+    <t>高中以上学历</t>
+  </si>
+  <si>
+    <r>
+      <t>09月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>男170cm以上,女160cm以上</t>
+  </si>
+  <si>
+    <t>1、培训和实习期2个月，按正常薪资4700元/月发放。加班按260元/班（综合工资5700-6500元）；
+2、培训和实习期满后，基本工资4900元/月，加班按260元/班，全勤奖300元，绩效奖金按月综合表现0-200元不等；转正后五险一金，
+3、上班时间提供免费工作餐三餐，提供住宿按房间配置100-220元/月，水电费平摊，上下班有班车免费接送。
+工作时间:
+早7点-晚7点，做二休一。</t>
+  </si>
+  <si>
+    <t>上海虹桥国际机场（Shanghai Hongqiao International Airport，IATA：SHA，ICAO：ZSSS），位于中国上海市长宁区，距市中心13千米，为4E级民用国际机场，是中国三大门户复合枢纽之一、 国际定期航班机场、对外开放的一类航空口岸和国际航班备降机场。 
+上海虹桥国际机场始建于1921年，于1950年重建；1971年由军民合用改为民航专用；2010年启用2号航站楼及第二跑道；2014年底启动1号航站楼改造及东交通中心工程。</t>
+  </si>
+  <si>
+    <t>工作稳定,晋升空间大</t>
+  </si>
+  <si>
+    <t>领位员</t>
+  </si>
+  <si>
+    <t>俏江南</t>
+  </si>
+  <si>
+    <t>无学历要求</t>
+  </si>
+  <si>
+    <t>无特殊技能要求</t>
+  </si>
+  <si>
+    <t>1.接听客人电话预订或当面预订，安排客人台号。
+2.欢迎客人到来，陪同客人前往安排的台位。
+3.保持领位台内、外和所负责的区域卫生。
+4.保证足够的办公用品、食品、物品、打货单，保存好旧的宴会单、备忘录、报表本及客户档案。
+5.做好各类表格。
+6.保持菜单、茶单、酒单、台卡的卫生、清洁。</t>
+  </si>
+  <si>
+    <t>俏江南是国际餐饮服务管理公司品牌。创始于2000年，自成立以来，俏江南遵循着创新、发展、品位与健康的企业核心精神，不断追求品牌的创新和突破，从国贸第一家餐厅到北京、上海、天津、武汉、成都、深圳、苏州、青岛、广州。</t>
+  </si>
+  <si>
+    <t>大型企业,包吃住,福利好</t>
+  </si>
+  <si>
+    <t>导购员</t>
+  </si>
+  <si>
+    <t>4000-6000/月</t>
+  </si>
+  <si>
+    <t>品牌男装专卖店</t>
+  </si>
+  <si>
+    <t>18-28岁</t>
+  </si>
+  <si>
+    <t>1、货场、货品的陈列以及安全维护工作，保持货品与助销用品的摆放整齐、清洁、有序。
+2、利用各种销售技巧，营造货场顾客参与气氛，提高顾客购买愿望，增加专卖店的营业额。
+3、收集顾客对货品和专卖店意见、建议与期望，及时妥善的处理顾客投诉，并向主管汇报。
+4、完成日、周、月（如销售、补货、盘点）报表等工作，并向主管汇报。
+5、完成上级主管交办的各项工作，并坚定实行专卖店的各项零售政策。</t>
+  </si>
+  <si>
+    <t>品牌男装专卖店，包括以下门店：宝山大场镇、松江新桥镇
+嘉定江桥镇。同时招聘兼职导购:130～200元（工作10小时）日结！</t>
+  </si>
+  <si>
+    <t>人员接触广,门店多,知名品牌</t>
+  </si>
+  <si>
+    <t>文员</t>
+  </si>
+  <si>
+    <t>5500-6500/月</t>
+  </si>
+  <si>
+    <t>高端餐饮公司</t>
+  </si>
+  <si>
+    <t>20岁以上</t>
+  </si>
+  <si>
+    <t>英语口语流利</t>
+  </si>
+  <si>
+    <t>1.对酒店各部门的工作程序要了解，
+2.所需的食物及物品等通过签单、分单、送单的过程所购买及统计好，
+3.部门文件和酒店发下的文件整理归档，
+4.周、月上交本部门的工作总结、月度报告等文件整理广。</t>
+  </si>
+  <si>
+    <t>上海某高端餐饮公司</t>
+  </si>
+  <si>
+    <t>包吃,包住</t>
+  </si>
+  <si>
+    <t>楼面经理</t>
+  </si>
+  <si>
+    <t>面议</t>
+  </si>
+  <si>
+    <t>大型粤菜酒店</t>
+  </si>
+  <si>
+    <t>有相关工作经验优先</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.编定每日早、中、晚班人员，做好领班、迎送员的考勤记录。
+2.每日班前检查服务员的仪表、仪容。
+3.了解当时用餐人数及要求，合理安排餐厅服务人员的工作， 督促服务员做好清洁卫生和餐、酒具的准备工作。
+4.随时注意餐厅就餐人员动态和服务情况，要在现场进行指挥 ，遇有VIP客人或举行重要会议，要认真检查餐前准备工作和餐桌摆放是否符合标准，并亲自上台服务，以确保服务的高水准。 
+5.加强与客人的沟通，了解客人对饭菜的意见，与公关销售员 加强合作，了解客人情绪，妥善处理客人的投诉，并及时向中餐厅经理反映。
+</t>
+  </si>
+  <si>
+    <t>包吃住,公司规模大,行业稳定</t>
+  </si>
+  <si>
+    <t>楼面主管</t>
+  </si>
+  <si>
+    <t>4800-5500/月</t>
+  </si>
+  <si>
+    <t>吃苦耐劳,工作负责,精力旺盛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、协助主管副经理做好人事工作，调动员工积极性，对员工纪律问题，及时给予解决，同时负责员工的绩效评估，按奖惩制度实施奖惩。
+2、了解客情，根据客情编排员工班次和休息日，负责对员工的考勤工作。
+3、营业时，向各领班布置任务，督导各领班工作。协助主管副经理完成餐厅经营指标，督导员工推销食品及饮品。
+4、协调、沟通餐厅、及厨房的工作。
+5、解决客人投诉，处理客人问题。
+</t>
+  </si>
+  <si>
+    <t>领班</t>
+  </si>
+  <si>
+    <t>4200-4500/月</t>
+  </si>
+  <si>
+    <t>1.自检仪容仪表，保持精神饱满; 了解当餐预订情况及特殊要求。
+2.检查本区服务员的仪容仪表及出勤情况。
+3.在经理领导下，负责组织工作，按要求、规格完成接待任务。
+4.深入工作实际，发现问题及时改正，参与某些环节的服务工作，特别是重要的筵席要亲自担任接待。</t>
+  </si>
+  <si>
+    <t>催收客服</t>
+  </si>
+  <si>
+    <t>180/天</t>
+  </si>
+  <si>
+    <t>大型金融服务公司</t>
+  </si>
+  <si>
+    <t>18-32岁</t>
+  </si>
+  <si>
+    <t>普通话标准,打字速度正常</t>
+  </si>
+  <si>
+    <t>1、电话提醒、短信等方式督促逾期客户及时还款；
+2、致电来电咨询客户，告知还款金额、还款方式、还款时间等；
+3、及时记录并完善客户信息；
+4、根据每月公司制定的 指标完成催收绩效。</t>
+  </si>
+  <si>
+    <t>提供住宿,免费工作餐,免费饮料,早9晚6</t>
+  </si>
+  <si>
+    <t>售后电话客服</t>
+  </si>
+  <si>
+    <t>3800-4500/月</t>
+  </si>
+  <si>
+    <t>知名电商品牌</t>
+  </si>
+  <si>
+    <t>18-30岁</t>
+  </si>
+  <si>
+    <t>普通话标准,沟通能力强</t>
+  </si>
+  <si>
+    <t>1、及时做好来询客户服务，解答客户相关提问。 
+2、熟悉公司业务规则，处理客户要求。 
+3、做好意向客人的跟踪服务并积极解决客户问题。
+4、掌握熟练的服务技巧。
+5、以良好的心态及时解决客户提出的问题和要求，提供售后服务并能解决一般投诉。</t>
+  </si>
+  <si>
+    <t>做五休二,可提供住宿</t>
+  </si>
+  <si>
+    <t>艺术品电话客服</t>
+  </si>
+  <si>
+    <t>大型艺术品相关公司</t>
+  </si>
+  <si>
+    <t>有电话客服经验优先</t>
+  </si>
+  <si>
+    <t>1、根据公司提供的客户资源，向客户推广公司的产品服务；
+2、负责接听客户热线，为客户介绍公司产品；
+3、通过电话负责客户的约访工作；
+4、协助配合销售团队，创造销售业绩。</t>
+  </si>
+  <si>
+    <t>带薪培训,免费住宿,提成高</t>
+  </si>
+  <si>
+    <t>中国邮政(积分兑换专员)营业员</t>
+  </si>
+  <si>
+    <t>中国邮政</t>
+  </si>
+  <si>
+    <t>18-43岁</t>
+  </si>
+  <si>
+    <t>初中以上学历</t>
+  </si>
+  <si>
+    <t>吃苦耐劳,工作负责</t>
+  </si>
+  <si>
+    <t>1.按照公司服务规范、管理规范、操作规范进行商品销售，完成销售计划。
+2.遵守商场的各项规章制度，认真做好本职工作，服从领导，听从指挥，在工作中学习本柜的各种商品知识。
+3.根据公司经营及市场变化，调整、提高售卖技巧和服务质量，为顾客提供完美的商品与服务。
+4.负责接待及处理顾客的咨询、投诉，自己不能解决的及时向卖场主管或上级主管反映。
+5.负责营业柜组内环境卫生工作，营业前做好柜台、货架、商品及地面等环境卫生，达到干净、整洁、玻璃明亮。</t>
+  </si>
+  <si>
+    <t>中国邮政全称中国邮政集团公司，是一个现由中华人民共和国财政部代表国务院履行出资人职责的中央管理国有独资公司，负责中国内地的邮政业务，实行“政企分开”的管理体制并接受国家邮政局的业务监管。
+1995年10月4日，原邮电部邮政总局正式注册为法人资格，即“中国邮电邮政总局”，简称“中国邮政”。
+2007年1月29日，中国邮政集团公司与国家邮政局挂牌成立，中国邮政政企分开。统称“中国邮政”。2009年，中国邮政入选中国世界纪录协会世界上最大的邮政网络，创造了多项世界之最、中国之最。</t>
+  </si>
+  <si>
+    <t>大型企业,门店多,可就近安排,加班费高</t>
+  </si>
+  <si>
     <t>0基础软件测试线下就业班</t>
   </si>
   <si>
@@ -999,6 +1294,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中国矿业大学（</t>
     </r>
     <r>
@@ -1553,9 +1854,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1596,6 +1897,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1633,10 +1940,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1654,7 +1962,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1663,10 +1991,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1680,25 +2016,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1718,6 +2038,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1727,21 +2048,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1765,12 +2072,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1786,18 +2087,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1810,7 +2099,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,7 +2123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,31 +2135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1876,7 +2153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,7 +2165,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1900,31 +2213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,13 +2243,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1966,7 +2267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,6 +2296,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2010,17 +2320,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2029,15 +2333,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2058,183 +2364,178 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2248,17 +2549,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2595,7 +2900,7 @@
     <col min="7" max="7" width="58.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="14.6296296296296" customWidth="1"/>
     <col min="10" max="10" width="21.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="12" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="13" customWidth="1"/>
     <col min="13" max="13" width="32.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2630,7 +2935,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -2656,31 +2961,31 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
@@ -2694,34 +2999,34 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>34</v>
       </c>
       <c r="L3" t="s">
@@ -2735,7 +3040,7 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
@@ -2744,25 +3049,25 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>38</v>
       </c>
       <c r="L4" t="s">
@@ -2776,7 +3081,7 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
@@ -2785,25 +3090,25 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>43</v>
       </c>
       <c r="L5" t="s">
@@ -2817,7 +3122,7 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
@@ -2826,25 +3131,25 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L6" t="s">
@@ -2858,7 +3163,7 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
@@ -2867,25 +3172,25 @@
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>53</v>
       </c>
       <c r="L7" t="s">
@@ -2899,7 +3204,7 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
@@ -2908,25 +3213,25 @@
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="L8" t="s">
@@ -2940,7 +3245,7 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
@@ -2949,25 +3254,25 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L9" t="s">
@@ -2981,7 +3286,7 @@
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -2990,25 +3295,25 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>66</v>
       </c>
       <c r="L10" t="s">
@@ -3022,7 +3327,7 @@
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
@@ -3031,25 +3336,25 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="H11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>66</v>
       </c>
       <c r="L11" t="s">
@@ -3063,7 +3368,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -3072,25 +3377,25 @@
       <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="H12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>66</v>
       </c>
       <c r="L12" t="s">
@@ -3104,7 +3409,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
@@ -3113,25 +3418,25 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>66</v>
       </c>
       <c r="L13" t="s">
@@ -3145,34 +3450,34 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="H14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>76</v>
       </c>
       <c r="L14" t="s">
@@ -3186,7 +3491,7 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C15" t="s">
@@ -3195,25 +3500,25 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>79</v>
       </c>
       <c r="L15" t="s">
@@ -3227,7 +3532,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
@@ -3236,25 +3541,25 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>82</v>
       </c>
       <c r="L16" t="s">
@@ -3268,7 +3573,7 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C17" t="s">
@@ -3277,25 +3582,25 @@
       <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>86</v>
       </c>
       <c r="L17" t="s">
@@ -3309,7 +3614,7 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C18" t="s">
@@ -3318,25 +3623,25 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
@@ -3350,7 +3655,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
@@ -3359,25 +3664,25 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="17" t="s">
         <v>92</v>
       </c>
       <c r="L19" t="s">
@@ -3391,7 +3696,7 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
@@ -3400,25 +3705,25 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="H20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="17" t="s">
         <v>94</v>
       </c>
       <c r="L20" t="s">
@@ -3432,7 +3737,7 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
@@ -3441,25 +3746,25 @@
       <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="13" t="s">
         <v>66</v>
       </c>
       <c r="L21" t="s">
@@ -3473,7 +3778,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
@@ -3482,25 +3787,25 @@
       <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="17" t="s">
         <v>101</v>
       </c>
       <c r="L22" t="s">
@@ -3514,7 +3819,7 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
@@ -3523,25 +3828,25 @@
       <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="13" t="s">
         <v>66</v>
       </c>
       <c r="L23" t="s">
@@ -3555,7 +3860,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
@@ -3564,25 +3869,25 @@
       <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="H24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="13" t="s">
         <v>66</v>
       </c>
       <c r="L24" t="s">
@@ -3596,7 +3901,7 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
@@ -3605,25 +3910,25 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="17" t="s">
         <v>53</v>
       </c>
       <c r="L25" t="s">
@@ -3637,7 +3942,7 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
@@ -3646,25 +3951,25 @@
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="H26" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="17" t="s">
         <v>112</v>
       </c>
       <c r="L26" t="s">
@@ -3678,7 +3983,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
@@ -3687,25 +3992,25 @@
       <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="17" t="s">
         <v>116</v>
       </c>
       <c r="L27" t="s">
@@ -3719,7 +4024,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
@@ -3728,25 +4033,25 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="17" t="s">
         <v>119</v>
       </c>
       <c r="L28" t="s">
@@ -3760,7 +4065,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
@@ -3769,25 +4074,25 @@
       <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="17" t="s">
         <v>124</v>
       </c>
       <c r="L29" t="s">
@@ -3801,7 +4106,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -3810,25 +4115,25 @@
       <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="17" t="s">
         <v>127</v>
       </c>
       <c r="L30" t="s">
@@ -3842,7 +4147,7 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
@@ -3851,25 +4156,25 @@
       <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="17" t="s">
         <v>131</v>
       </c>
       <c r="L31" t="s">
@@ -3883,7 +4188,7 @@
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C32" t="s">
@@ -3892,25 +4197,25 @@
       <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="17" t="s">
         <v>94</v>
       </c>
       <c r="L32" t="s">
@@ -3924,7 +4229,7 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="19" t="s">
         <v>134</v>
       </c>
       <c r="C33" t="s">
@@ -3933,25 +4238,25 @@
       <c r="D33" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="8" t="s">
+      <c r="H33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="17" t="s">
         <v>138</v>
       </c>
       <c r="L33" t="s">
@@ -3965,34 +4270,34 @@
       <c r="A34" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="19" t="s">
         <v>141</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="8" t="s">
+      <c r="H34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="17" t="s">
         <v>34</v>
       </c>
       <c r="L34" t="s">
@@ -4006,34 +4311,34 @@
       <c r="A35" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="H35" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="17" t="s">
         <v>145</v>
       </c>
       <c r="L35" t="s">
@@ -4047,34 +4352,34 @@
       <c r="A36" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="8" t="s">
+      <c r="H36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="17" t="s">
         <v>148</v>
       </c>
       <c r="L36" t="s">
@@ -4088,34 +4393,34 @@
       <c r="A37" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="8" t="s">
+      <c r="H37" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="17" t="s">
         <v>151</v>
       </c>
       <c r="L37" t="s">
@@ -4129,34 +4434,34 @@
       <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="8" t="s">
+      <c r="H38" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="17" t="s">
         <v>153</v>
       </c>
       <c r="L38" t="s">
@@ -4170,34 +4475,34 @@
       <c r="A39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="8" t="s">
+      <c r="H39" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="17" t="s">
         <v>155</v>
       </c>
       <c r="L39" t="s">
@@ -4211,34 +4516,34 @@
       <c r="A40" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="8" t="s">
+      <c r="H40" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="17" t="s">
         <v>158</v>
       </c>
       <c r="L40" t="s">
@@ -4252,34 +4557,34 @@
       <c r="A41" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="19" t="s">
         <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="8" t="s">
+      <c r="H41" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="17" t="s">
         <v>138</v>
       </c>
       <c r="L41" t="s">
@@ -4293,34 +4598,34 @@
       <c r="A42" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="8" t="s">
+      <c r="H42" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="17" t="s">
         <v>161</v>
       </c>
       <c r="L42" t="s">
@@ -4334,34 +4639,34 @@
       <c r="A43" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="8" t="s">
+      <c r="H43" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="13" t="s">
         <v>26</v>
       </c>
       <c r="L43" t="s">
@@ -4425,10 +4730,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
@@ -4438,776 +4743,1239 @@
     <col min="7" max="7" width="60.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:14">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:14">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:14">
+      <c r="A4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:14">
+      <c r="A5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="1" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="1" spans="1:14">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="1:14">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="1" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="H13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="L13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
+    <row r="14" s="8" customFormat="1" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="I14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C19" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F19" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="H19" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="1:14">
+      <c r="A21" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="I21" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="N21" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="1:14">
+      <c r="A22" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="1:14">
+      <c r="A23" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:14">
+      <c r="A24" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="1:14">
+      <c r="A25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="1:14">
+      <c r="A26" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" s="8" customFormat="1" spans="1:14">
+      <c r="A27" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" s="8" customFormat="1" spans="1:14">
+      <c r="A28" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C28" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="E28" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="H28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>163</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="M15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="10"/>
+      <c r="N28" s="8" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G7" r:id="rId2" display="http://www.lanxiangren.net/static/logo/dafeng.png"/>
-    <hyperlink ref="G8" r:id="rId3" display="http://www.lanxiangren.net/static/logo/yinghuada.gif"/>
-    <hyperlink ref="G9" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G10" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G11" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G12" r:id="rId4" display="http://www.lanxiangren.net/static/logo/fushikang.png" tooltip="http://www.lanxiangren.net/static/logo/fushikang.png"/>
-    <hyperlink ref="G13" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G14" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G6" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G3" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G4" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G5" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G15" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G16" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G17" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -5224,724 +5992,724 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.55555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.11111111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88888888888889" style="1"/>
-    <col min="10" max="10" width="14.2222222222222" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.8888888888889" style="1" customWidth="1"/>
-    <col min="12" max="12" width="59.6666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88888888888889" style="1"/>
-    <col min="14" max="14" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="10.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.55555555555556" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.88888888888889" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.44444444444444" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.11111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.2222222222222" style="2" customWidth="1"/>
+    <col min="8" max="9" width="8.88888888888889" style="2"/>
+    <col min="10" max="10" width="14.2222222222222" style="2" customWidth="1"/>
+    <col min="11" max="11" width="46.8888888888889" style="2" customWidth="1"/>
+    <col min="12" max="12" width="59.6666666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.88888888888889" style="2"/>
+    <col min="14" max="14" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="129.6" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="3">
         <v>18800</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>191</v>
+      <c r="C2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>192</v>
+      <c r="H2" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>193</v>
+      <c r="J2" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>196</v>
+        <v>270</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:14">
-      <c r="A3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="3">
         <v>8800</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>201</v>
+      <c r="C3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>192</v>
+      <c r="H3" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>193</v>
+      <c r="J3" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="144" spans="1:14">
-      <c r="A4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="2">
+        <v>270</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="144" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="3">
         <v>22800</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>191</v>
+      <c r="C4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>192</v>
+      <c r="H4" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>204</v>
+      <c r="J4" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="144" spans="1:14">
-      <c r="A5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="2">
+        <v>281</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="144" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="3">
         <v>10800</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>201</v>
+      <c r="C5" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>192</v>
+      <c r="H5" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>204</v>
+      <c r="J5" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="187.2" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="2">
+        <v>281</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="187.2" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="3">
         <v>22800</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>191</v>
+      <c r="C6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>192</v>
+      <c r="H6" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>211</v>
+      <c r="J6" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="172.8" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="2">
+        <v>288</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="172.8" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="3">
         <v>11800</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>201</v>
+      <c r="C7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>192</v>
+      <c r="H7" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>211</v>
+      <c r="J7" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="144" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="2">
+        <v>288</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="144" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="3">
         <v>20800</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>191</v>
+      <c r="C8" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>192</v>
+      <c r="H8" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>218</v>
+      <c r="J8" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="144" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="2">
+        <v>295</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="144" spans="1:14">
+      <c r="A9" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="3">
         <v>10800</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>201</v>
+      <c r="C9" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>192</v>
+      <c r="H9" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>218</v>
+      <c r="J9" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="115.2" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="2">
+        <v>295</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="115.2" spans="1:14">
+      <c r="A10" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="3">
         <v>9800</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>191</v>
+      <c r="C10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>192</v>
+      <c r="H10" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>224</v>
+      <c r="J10" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="100.8" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="2">
+        <v>301</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="100.8" spans="1:14">
+      <c r="A11" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="3">
         <v>5800</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>191</v>
+      <c r="C11" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>192</v>
+      <c r="H11" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>224</v>
+      <c r="J11" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="115.2" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="2">
+        <v>301</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="115.2" spans="1:14">
+      <c r="A12" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="3">
         <v>14300</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>191</v>
+      <c r="C12" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>192</v>
+      <c r="H12" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>230</v>
+      <c r="J12" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="115.2" spans="1:14">
-      <c r="A13" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="2">
+        <v>307</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="115.2" spans="1:14">
+      <c r="A13" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="3">
         <v>14300</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>191</v>
+      <c r="C13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>192</v>
+      <c r="H13" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>230</v>
+      <c r="J13" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="144" spans="1:14">
-      <c r="A14" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" s="2">
+        <v>307</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="144" spans="1:14">
+      <c r="A14" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="3">
         <v>18800</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>191</v>
+      <c r="C14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>192</v>
+      <c r="H14" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>230</v>
+      <c r="J14" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="129.6" spans="1:14">
-      <c r="A15" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="2">
+        <v>313</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="129.6" spans="1:14">
+      <c r="A15" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="3">
         <v>21800</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>191</v>
+      <c r="C15" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>192</v>
+      <c r="H15" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>241</v>
+      <c r="J15" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="115.2" spans="1:14">
-      <c r="A16" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="2">
+        <v>318</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="115.2" spans="1:14">
+      <c r="A16" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="3">
         <v>10800</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>201</v>
+      <c r="C16" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>192</v>
+      <c r="H16" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>241</v>
+      <c r="J16" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>244</v>
+        <v>318</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5972,8 +6740,8 @@
   <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5986,576 +6754,576 @@
     <col min="12" max="12" width="54.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="28.8" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="129.6" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" s="2" customFormat="1" ht="129.6" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="3">
         <v>9000</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>251</v>
+      <c r="C2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>192</v>
+      <c r="H2" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>252</v>
+      <c r="J2" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="129.6" spans="1:14">
-      <c r="A3" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="2">
+        <v>329</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="129.6" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="3">
         <v>10000</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>251</v>
+      <c r="C3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>192</v>
+      <c r="H3" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>252</v>
+      <c r="J3" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>257</v>
+        <v>332</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="129.6" spans="1:14">
-      <c r="A4" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="2">
+        <v>329</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="129.6" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" s="3">
         <v>11000</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>251</v>
+      <c r="C4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>192</v>
+      <c r="H4" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>252</v>
+      <c r="J4" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>255</v>
+        <v>329</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" ht="129.6" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="2">
         <v>13000</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>251</v>
+      <c r="C5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>192</v>
+      <c r="H5" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>252</v>
+      <c r="J5" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>255</v>
+        <v>329</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="6" ht="115.2" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="3">
         <v>9000</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>251</v>
+      <c r="C6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>192</v>
+      <c r="H6" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>252</v>
+      <c r="J6" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>264</v>
+        <v>328</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="7" ht="115.2" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="3">
         <v>10000</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>251</v>
+      <c r="C7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>192</v>
+      <c r="H7" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>252</v>
+      <c r="J7" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>264</v>
+        <v>332</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="3">
         <v>11000</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>251</v>
+      <c r="C8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>192</v>
+      <c r="H8" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>252</v>
+      <c r="J8" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>264</v>
+        <v>334</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="9" ht="115.2" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="2">
         <v>13000</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>251</v>
+      <c r="C9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>192</v>
+      <c r="H9" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>252</v>
+      <c r="J9" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>264</v>
+        <v>336</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="10" ht="115.2" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="3">
         <v>9000</v>
       </c>
       <c r="C10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>251</v>
+        <v>340</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>192</v>
+      <c r="H10" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>252</v>
+      <c r="J10" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>267</v>
+        <v>328</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="11" ht="115.2" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="3">
         <v>10000</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>251</v>
+        <v>340</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>192</v>
+      <c r="H11" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>252</v>
+      <c r="J11" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>267</v>
+        <v>332</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="12" ht="115.2" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="3">
         <v>11000</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>251</v>
+        <v>340</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>192</v>
+      <c r="H12" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>252</v>
+      <c r="J12" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>267</v>
+        <v>334</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="13" ht="115.2" spans="1:14">
-      <c r="A13" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="2">
         <v>13000</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>251</v>
+        <v>340</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>192</v>
+      <c r="H13" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>252</v>
+      <c r="J13" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>267</v>
+        <v>336</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -6576,4 +7344,457 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="14.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="6.33333333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="61.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="58" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356">
   <si>
     <t>title</t>
   </si>
@@ -626,16 +626,28 @@
     <t>17-46周岁</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/riteng.png</t>
+  </si>
+  <si>
     <t>200-250/天</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/riming.png</t>
+  </si>
+  <si>
     <t>上海富驰高科技</t>
   </si>
   <si>
     <t>女18-42岁，男18-35岁</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/fuchi.png</t>
+  </si>
+  <si>
     <t>上海富驰高科技有限公司（简称“富驰高科”）成立于1999年11月，是金属粉末注射成型（MIM）产品专业制造商。富驰高科致力于运用MIM技术生产小型、三维形状复杂的高性能结构零部件，大批量提供高性价比的MIM零件，为客户持续提升市场竞争力提供强有力的支持。</t>
+  </si>
+  <si>
+    <t>http://www.lanxiangren.net/static/logo/changshuo.png</t>
   </si>
   <si>
     <r>
@@ -685,6 +697,9 @@
     <t>高中以上学历</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/hongqiao.png</t>
+  </si>
+  <si>
     <r>
       <t>09月</t>
     </r>
@@ -735,6 +750,9 @@
     <t>无学历要求</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/jiangnan.png</t>
+  </si>
+  <si>
     <t>无特殊技能要求</t>
   </si>
   <si>
@@ -764,6 +782,9 @@
     <t>18-28岁</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/nanzhuang.png</t>
+  </si>
+  <si>
     <t>1、货场、货品的陈列以及安全维护工作，保持货品与助销用品的摆放整齐、清洁、有序。
 2、利用各种销售技巧，营造货场顾客参与气氛，提高顾客购买愿望，增加专卖店的营业额。
 3、收集顾客对货品和专卖店意见、建议与期望，及时妥善的处理顾客投诉，并向主管汇报。
@@ -790,6 +811,9 @@
     <t>20岁以上</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/canyin.png</t>
+  </si>
+  <si>
     <t>英语口语流利</t>
   </si>
   <si>
@@ -812,6 +836,9 @@
   </si>
   <si>
     <t>大型粤菜酒店</t>
+  </si>
+  <si>
+    <t>http://www.lanxiangren.net/static/logo/yuecai.png</t>
   </si>
   <si>
     <t>有相关工作经验优先</t>
@@ -869,6 +896,9 @@
     <t>18-32岁</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/jinrong.png</t>
+  </si>
+  <si>
     <t>普通话标准,打字速度正常</t>
   </si>
   <si>
@@ -891,6 +921,9 @@
   </si>
   <si>
     <t>18-30岁</t>
+  </si>
+  <si>
+    <t>http://www.lanxiangren.net/static/logo/dianshang.png</t>
   </si>
   <si>
     <t>普通话标准,沟通能力强</t>
@@ -912,6 +945,9 @@
     <t>大型艺术品相关公司</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/yishu.png</t>
+  </si>
+  <si>
     <t>有电话客服经验优先</t>
   </si>
   <si>
@@ -934,6 +970,9 @@
   </si>
   <si>
     <t>初中以上学历</t>
+  </si>
+  <si>
+    <t>http://www.lanxiangren.net/static/logo/youzheng.png</t>
   </si>
   <si>
     <t>吃苦耐劳,工作负责</t>
@@ -1897,18 +1936,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2408,7 +2447,7 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2553,15 +2592,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -2900,7 +2939,7 @@
     <col min="7" max="7" width="58.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="14.6296296296296" customWidth="1"/>
     <col min="10" max="10" width="21.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="13" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="14" customWidth="1"/>
     <col min="13" max="13" width="32.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2935,7 +2974,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -2961,31 +3000,31 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
@@ -2999,34 +3038,34 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>34</v>
       </c>
       <c r="L3" t="s">
@@ -3040,7 +3079,7 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
@@ -3049,25 +3088,25 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>38</v>
       </c>
       <c r="L4" t="s">
@@ -3081,7 +3120,7 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
@@ -3090,10 +3129,10 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="22" t="s">
@@ -3102,13 +3141,13 @@
       <c r="H5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>43</v>
       </c>
       <c r="L5" t="s">
@@ -3122,7 +3161,7 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
@@ -3131,25 +3170,25 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="12" t="s">
         <v>47</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L6" t="s">
@@ -3163,7 +3202,7 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
@@ -3172,25 +3211,25 @@
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="12" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>53</v>
       </c>
       <c r="L7" t="s">
@@ -3204,7 +3243,7 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
@@ -3213,25 +3252,25 @@
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>57</v>
       </c>
       <c r="L8" t="s">
@@ -3245,7 +3284,7 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
@@ -3254,25 +3293,25 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="12" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>61</v>
       </c>
       <c r="L9" t="s">
@@ -3286,7 +3325,7 @@
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -3295,25 +3334,25 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L10" t="s">
@@ -3327,7 +3366,7 @@
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
@@ -3336,25 +3375,25 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L11" t="s">
@@ -3368,7 +3407,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -3377,25 +3416,25 @@
       <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L12" t="s">
@@ -3409,7 +3448,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
@@ -3418,25 +3457,25 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L13" t="s">
@@ -3450,34 +3489,34 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>76</v>
       </c>
       <c r="L14" t="s">
@@ -3491,7 +3530,7 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C15" t="s">
@@ -3500,25 +3539,25 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>79</v>
       </c>
       <c r="L15" t="s">
@@ -3532,7 +3571,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
@@ -3541,25 +3580,25 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>82</v>
       </c>
       <c r="L16" t="s">
@@ -3573,7 +3612,7 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C17" t="s">
@@ -3582,25 +3621,25 @@
       <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>86</v>
       </c>
       <c r="L17" t="s">
@@ -3614,7 +3653,7 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C18" t="s">
@@ -3623,25 +3662,25 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
@@ -3655,7 +3694,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
@@ -3664,25 +3703,25 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="18" t="s">
         <v>92</v>
       </c>
       <c r="L19" t="s">
@@ -3696,7 +3735,7 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
@@ -3705,25 +3744,25 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="18" t="s">
         <v>94</v>
       </c>
       <c r="L20" t="s">
@@ -3737,7 +3776,7 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
@@ -3746,25 +3785,25 @@
       <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L21" t="s">
@@ -3778,7 +3817,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
@@ -3787,10 +3826,10 @@
       <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -3799,13 +3838,13 @@
       <c r="H22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="18" t="s">
         <v>101</v>
       </c>
       <c r="L22" t="s">
@@ -3819,7 +3858,7 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
@@ -3828,25 +3867,25 @@
       <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L23" t="s">
@@ -3860,7 +3899,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
@@ -3869,25 +3908,25 @@
       <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L24" t="s">
@@ -3901,7 +3940,7 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
@@ -3910,25 +3949,25 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="12" t="s">
         <v>52</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="18" t="s">
         <v>53</v>
       </c>
       <c r="L25" t="s">
@@ -3942,7 +3981,7 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
@@ -3951,25 +3990,25 @@
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="12" t="s">
         <v>111</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="18" t="s">
         <v>112</v>
       </c>
       <c r="L26" t="s">
@@ -3983,7 +4022,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
@@ -3992,25 +4031,25 @@
       <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="12" t="s">
         <v>115</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L27" t="s">
@@ -4024,7 +4063,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
@@ -4033,25 +4072,25 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="18" t="s">
         <v>119</v>
       </c>
       <c r="L28" t="s">
@@ -4065,7 +4104,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
@@ -4074,25 +4113,25 @@
       <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="12" t="s">
         <v>123</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="18" t="s">
         <v>124</v>
       </c>
       <c r="L29" t="s">
@@ -4106,7 +4145,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -4115,25 +4154,25 @@
       <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="18" t="s">
         <v>127</v>
       </c>
       <c r="L30" t="s">
@@ -4147,7 +4186,7 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
@@ -4156,25 +4195,25 @@
       <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="18" t="s">
         <v>131</v>
       </c>
       <c r="L31" t="s">
@@ -4188,7 +4227,7 @@
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C32" t="s">
@@ -4197,25 +4236,25 @@
       <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="K32" s="18" t="s">
         <v>94</v>
       </c>
       <c r="L32" t="s">
@@ -4229,7 +4268,7 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C33" t="s">
@@ -4238,25 +4277,25 @@
       <c r="D33" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="18" t="s">
         <v>138</v>
       </c>
       <c r="L33" t="s">
@@ -4270,34 +4309,34 @@
       <c r="A34" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>141</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="18" t="s">
         <v>34</v>
       </c>
       <c r="L34" t="s">
@@ -4311,34 +4350,34 @@
       <c r="A35" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="18" t="s">
         <v>145</v>
       </c>
       <c r="L35" t="s">
@@ -4352,34 +4391,34 @@
       <c r="A36" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="20" t="s">
         <v>146</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="18" t="s">
         <v>148</v>
       </c>
       <c r="L36" t="s">
@@ -4393,34 +4432,34 @@
       <c r="A37" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="K37" s="18" t="s">
         <v>151</v>
       </c>
       <c r="L37" t="s">
@@ -4434,34 +4473,34 @@
       <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>152</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K38" s="18" t="s">
         <v>153</v>
       </c>
       <c r="L38" t="s">
@@ -4475,34 +4514,34 @@
       <c r="A39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="18" t="s">
         <v>155</v>
       </c>
       <c r="L39" t="s">
@@ -4516,34 +4555,34 @@
       <c r="A40" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="20" t="s">
         <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H40" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="K40" s="18" t="s">
         <v>158</v>
       </c>
       <c r="L40" t="s">
@@ -4557,34 +4596,34 @@
       <c r="A41" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="K41" s="18" t="s">
         <v>138</v>
       </c>
       <c r="L41" t="s">
@@ -4598,34 +4637,34 @@
       <c r="A42" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="20" t="s">
         <v>160</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H42" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="17" t="s">
+      <c r="K42" s="18" t="s">
         <v>161</v>
       </c>
       <c r="L42" t="s">
@@ -4639,34 +4678,34 @@
       <c r="A43" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="K43" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L43" t="s">
@@ -4733,7 +4772,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
@@ -4777,7 +4816,7 @@
       <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="8" t="s">
@@ -4812,7 +4851,7 @@
       <c r="H2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -4821,7 +4860,7 @@
       <c r="K2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="8" t="s">
@@ -4856,7 +4895,7 @@
       <c r="H3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>170</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -4865,13 +4904,13 @@
       <c r="K3" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="17" t="s">
         <v>172</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4900,7 +4939,7 @@
       <c r="H4" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>170</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -4909,13 +4948,13 @@
       <c r="K4" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="17" t="s">
         <v>176</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4944,7 +4983,7 @@
       <c r="H5" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="16" t="s">
         <v>170</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -4953,13 +4992,13 @@
       <c r="K5" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="17" t="s">
         <v>180</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4988,7 +5027,7 @@
       <c r="H6" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -4997,7 +5036,7 @@
       <c r="K6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="8" t="s">
@@ -5032,7 +5071,7 @@
       <c r="H7" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -5041,7 +5080,7 @@
       <c r="K7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="18" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -5076,7 +5115,7 @@
       <c r="H8" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -5085,7 +5124,7 @@
       <c r="K8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M8" s="8" t="s">
@@ -5120,7 +5159,7 @@
       <c r="H9" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -5129,7 +5168,7 @@
       <c r="K9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="8" t="s">
@@ -5164,7 +5203,7 @@
       <c r="H10" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -5173,7 +5212,7 @@
       <c r="K10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M10" s="8" t="s">
@@ -5208,7 +5247,7 @@
       <c r="H11" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -5217,7 +5256,7 @@
       <c r="K11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M11" s="8" t="s">
@@ -5252,7 +5291,7 @@
       <c r="H12" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -5261,7 +5300,7 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M12" s="8" t="s">
@@ -5290,13 +5329,13 @@
       <c r="F13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>22</v>
+      <c r="G13" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -5305,7 +5344,7 @@
       <c r="K13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="18" t="s">
         <v>119</v>
       </c>
       <c r="M13" s="8" t="s">
@@ -5320,7 +5359,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>143</v>
@@ -5334,13 +5373,13 @@
       <c r="F14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>22</v>
+      <c r="G14" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -5349,7 +5388,7 @@
       <c r="K14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="18" t="s">
         <v>145</v>
       </c>
       <c r="M14" s="8" t="s">
@@ -5364,27 +5403,27 @@
         <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>22</v>
+      <c r="G15" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="16" t="s">
         <v>170</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -5393,8 +5432,8 @@
       <c r="K15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="17" t="s">
-        <v>187</v>
+      <c r="L15" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>31</v>
@@ -5408,7 +5447,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>141</v>
@@ -5422,13 +5461,13 @@
       <c r="F16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>22</v>
+      <c r="G16" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="16" t="s">
         <v>170</v>
       </c>
       <c r="J16" s="9" t="s">
@@ -5437,7 +5476,7 @@
       <c r="K16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="M16" s="8" t="s">
@@ -5452,12 +5491,12 @@
         <v>28</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -5466,13 +5505,13 @@
       <c r="F17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>22</v>
+      <c r="G17" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="16" t="s">
         <v>170</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -5481,10 +5520,10 @@
       <c r="K17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" s="17" t="s">
+      <c r="L17" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" s="18" t="s">
         <v>46</v>
       </c>
       <c r="N17" s="8" t="s">
@@ -5493,57 +5532,57 @@
     </row>
     <row r="18" s="8" customFormat="1" spans="1:14">
       <c r="A18" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>22</v>
+        <v>198</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>195</v>
+      <c r="I18" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="1" spans="1:14">
       <c r="A19" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>31</v>
@@ -5552,430 +5591,448 @@
         <v>20</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>22</v>
+        <v>207</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>195</v>
+      <c r="I19" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" s="8" customFormat="1" spans="1:14">
       <c r="A20" s="8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>22</v>
+        <v>207</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I20" s="18" t="s">
-        <v>195</v>
+      <c r="I20" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="1" spans="1:14">
       <c r="A21" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>22</v>
+        <v>198</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>195</v>
+      <c r="I21" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" s="8" customFormat="1" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>22</v>
+        <v>198</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="18" t="s">
-        <v>195</v>
+      <c r="I22" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="1:14">
       <c r="A23" s="8" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>22</v>
+        <v>198</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>195</v>
+      <c r="I23" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="1:14">
       <c r="A24" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>22</v>
+        <v>207</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="18" t="s">
-        <v>195</v>
+      <c r="I24" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>22</v>
+        <v>207</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>195</v>
+      <c r="I25" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" s="8" customFormat="1" spans="1:14">
       <c r="A26" s="8" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>22</v>
+        <v>207</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I26" s="18" t="s">
-        <v>195</v>
+      <c r="I26" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" s="8" customFormat="1" spans="1:14">
       <c r="A27" s="8" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>22</v>
+        <v>207</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I27" s="18" t="s">
-        <v>195</v>
+      <c r="I27" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" s="8" customFormat="1" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>22</v>
+        <v>269</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>195</v>
+      <c r="I28" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1" display="http://www.lanxiangren.net/static/logo/hongqiao.png"/>
+    <hyperlink ref="G19" r:id="rId2" display="http://www.lanxiangren.net/static/logo/jiangnan.png"/>
+    <hyperlink ref="G20" r:id="rId3" display="http://www.lanxiangren.net/static/logo/nanzhuang.png"/>
+    <hyperlink ref="G21" r:id="rId4" display="http://www.lanxiangren.net/static/logo/canyin.png"/>
+    <hyperlink ref="G22" r:id="rId5" display="http://www.lanxiangren.net/static/logo/yuecai.png"/>
+    <hyperlink ref="G23" r:id="rId5" display="http://www.lanxiangren.net/static/logo/yuecai.png"/>
+    <hyperlink ref="G24" r:id="rId5" display="http://www.lanxiangren.net/static/logo/yuecai.png"/>
+    <hyperlink ref="G25" r:id="rId6" display="http://www.lanxiangren.net/static/logo/jinrong.png"/>
+    <hyperlink ref="G26" r:id="rId7" display="http://www.lanxiangren.net/static/logo/dianshang.png"/>
+    <hyperlink ref="G27" r:id="rId8" display="http://www.lanxiangren.net/static/logo/yishu.png"/>
+    <hyperlink ref="G28" r:id="rId9" display="http://www.lanxiangren.net/static/logo/youzheng.png"/>
+    <hyperlink ref="G13" r:id="rId10" display="http://www.lanxiangren.net/static/logo/riteng.png"/>
+    <hyperlink ref="G14" r:id="rId11" display="http://www.lanxiangren.net/static/logo/riming.png"/>
+    <hyperlink ref="G15" r:id="rId12" display="http://www.lanxiangren.net/static/logo/fuchi.png"/>
+    <hyperlink ref="G16" r:id="rId13" display="http://www.lanxiangren.net/static/logo/changshuo.png"/>
+    <hyperlink ref="G17" r:id="rId13" display="http://www.lanxiangren.net/static/logo/changshuo.png"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -6054,662 +6111,662 @@
     </row>
     <row r="2" ht="129.6" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B2" s="3">
         <v>18800</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B3" s="3">
         <v>8800</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="144" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B4" s="3">
         <v>22800</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="144" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B5" s="3">
         <v>10800</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="187.2" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B6" s="3">
         <v>22800</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="172.8" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B7" s="3">
         <v>11800</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="144" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B8" s="3">
         <v>20800</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="144" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B9" s="3">
         <v>10800</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="115.2" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B10" s="3">
         <v>9800</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="100.8" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B11" s="3">
         <v>5800</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="115.2" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B12" s="3">
         <v>14300</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="115.2" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B13" s="3">
         <v>14300</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="144" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B14" s="3">
         <v>18800</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="129.6" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B15" s="3">
         <v>21800</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="115.2" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B16" s="3">
         <v>10800</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6800,530 +6857,530 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="129.6" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B2" s="3">
         <v>9000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="129.6" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B3" s="3">
         <v>10000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="129.6" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B4" s="3">
         <v>11000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" ht="129.6" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B5" s="2">
         <v>13000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" ht="115.2" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B6" s="3">
         <v>9000</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" ht="115.2" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B7" s="3">
         <v>10000</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B8" s="3">
         <v>11000</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" ht="115.2" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B9" s="2">
         <v>13000</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" ht="115.2" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B10" s="3">
         <v>9000</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" ht="115.2" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B11" s="3">
         <v>10000</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" ht="115.2" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B12" s="3">
         <v>11000</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" ht="115.2" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B13" s="2">
         <v>13000</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7656,13 +7713,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F17">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7670,13 +7727,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F18">
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7684,13 +7741,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F19">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7698,13 +7755,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F20">
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7712,13 +7769,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F21">
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -7726,13 +7783,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F22">
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7740,13 +7797,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F23">
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7754,13 +7811,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F24">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7768,13 +7825,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F25">
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7782,7 +7839,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7790,7 +7847,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9444" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369">
   <si>
     <t>title</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>09月</t>
     </r>
     <r>
@@ -1008,6 +1014,9 @@
     <t>上海/北京</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/ceshi.png</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -1059,6 +1068,12 @@
     <t>JAVA开发线下就业班</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/java.jpg</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>0基础,就业岗位空缺极大，发展前景好，就业薪资6500起</t>
   </si>
   <si>
@@ -1097,6 +1112,9 @@
   </si>
   <si>
     <t>Python开发线下就业班</t>
+  </si>
+  <si>
+    <t>http://www.lanxiangren.net/static/logo/python.jpg</t>
   </si>
   <si>
     <t>0基础,就业面广泛，朝阳技能生命周期长，人工智能，大数据</t>
@@ -1144,6 +1162,12 @@
     <t>UI交互设计师线下就业班</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/UI.jpg</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>精设计,会代码,懂产品,10+年大牛教学,职业生命周期长</t>
   </si>
   <si>
@@ -1271,6 +1295,12 @@
     <t>WEB前端工程师线下培训班</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/qianduan.png</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
     <t>前端工程师,岗位性价比高,行业男女比适中</t>
   </si>
   <si>
@@ -1321,6 +1351,12 @@
   </si>
   <si>
     <t>2.5学年制</t>
+  </si>
+  <si>
+    <t>http://www.lanxiangren.net/static/logo/kuangda.jpg</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
   <si>
     <t>线下手续少,学历学信网可查,教学时间对生活影响小,真实可靠</t>
@@ -1862,6 +1898,9 @@
     <t>专升本</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t xml:space="preserve">本课程针大专及同等学历的学生，提升学历至大专学历。
 全程线上非脱产学习。
 学习时长2.5个学年。学历学信网可查。
@@ -1871,6 +1910,9 @@
     <t>湖南医药学院</t>
   </si>
   <si>
+    <t>http://www.lanxiangren.net/static/logo/hunan.png</t>
+  </si>
+  <si>
     <t>湖南医药学院（Hunan University of Medicine），坐落于湖南省怀化市，是一所国家公办的全日制普通医学本科院校，直属湖南省教育厅，入选卓越医生教育培养计划。
 学校肇始于1912年，前身为留美归国华侨、著名医学教育家、公共卫生学家颜福庆先生创立的长沙红十字会看护训练所，1924年正式建立长沙仁术护病学校。2000年升格为怀化医学高等专科学校。2014年5月，经教育部批准升格为湖南医药学院。</t>
   </si>
@@ -1879,6 +1921,9 @@
   </si>
   <si>
     <t>长沙医学院</t>
+  </si>
+  <si>
+    <t>http://www.lanxiangren.net/static/logo/changsha.jpg</t>
   </si>
   <si>
     <t>长沙医学院是经国家教育部批准的民办全日制普通高等学校，其前身为湘南中等卫生职业技术学校，2005年经国家教育部批准升格为长沙医学院。
@@ -1958,10 +2003,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1972,10 +2018,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1989,34 +2035,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2037,9 +2055,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2050,6 +2068,13 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2069,17 +2094,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2088,6 +2118,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2126,7 +2171,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2138,31 +2213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2180,13 +2237,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2198,13 +2297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2216,55 +2315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2282,31 +2351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2321,40 +2366,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2377,6 +2398,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2388,17 +2439,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2420,46 +2465,46 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2468,137 +2513,133 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2939,7 +2980,7 @@
     <col min="7" max="7" width="58.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="14.6296296296296" customWidth="1"/>
     <col min="10" max="10" width="21.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="14" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="5" customWidth="1"/>
     <col min="13" max="13" width="32.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2974,7 +3015,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -3000,31 +3041,31 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
@@ -3038,34 +3079,34 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="10" t="s">
         <v>34</v>
       </c>
       <c r="L3" t="s">
@@ -3079,7 +3120,7 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
@@ -3088,25 +3129,25 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="10" t="s">
         <v>38</v>
       </c>
       <c r="L4" t="s">
@@ -3120,7 +3161,7 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
@@ -3129,25 +3170,25 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="10" t="s">
         <v>43</v>
       </c>
       <c r="L5" t="s">
@@ -3161,7 +3202,7 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
@@ -3170,25 +3211,25 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="5" t="s">
         <v>48</v>
       </c>
       <c r="L6" t="s">
@@ -3202,7 +3243,7 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
@@ -3211,25 +3252,25 @@
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="L7" t="s">
@@ -3243,7 +3284,7 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
@@ -3252,25 +3293,25 @@
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="10" t="s">
         <v>57</v>
       </c>
       <c r="L8" t="s">
@@ -3284,7 +3325,7 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
@@ -3293,25 +3334,25 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="10" t="s">
         <v>61</v>
       </c>
       <c r="L9" t="s">
@@ -3325,7 +3366,7 @@
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -3334,25 +3375,25 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="5" t="s">
         <v>66</v>
       </c>
       <c r="L10" t="s">
@@ -3366,7 +3407,7 @@
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
@@ -3375,25 +3416,25 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="5" t="s">
         <v>66</v>
       </c>
       <c r="L11" t="s">
@@ -3407,7 +3448,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -3416,25 +3457,25 @@
       <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="20" t="s">
+      <c r="H12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="5" t="s">
         <v>66</v>
       </c>
       <c r="L12" t="s">
@@ -3448,7 +3489,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
@@ -3457,25 +3498,25 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="H13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="5" t="s">
         <v>66</v>
       </c>
       <c r="L13" t="s">
@@ -3489,34 +3530,34 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="20" t="s">
+      <c r="H14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="10" t="s">
         <v>76</v>
       </c>
       <c r="L14" t="s">
@@ -3530,7 +3571,7 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C15" t="s">
@@ -3539,25 +3580,25 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="H15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="5" t="s">
         <v>79</v>
       </c>
       <c r="L15" t="s">
@@ -3571,7 +3612,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
@@ -3580,25 +3621,25 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="20" t="s">
+      <c r="H16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="10" t="s">
         <v>82</v>
       </c>
       <c r="L16" t="s">
@@ -3612,7 +3653,7 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C17" t="s">
@@ -3621,25 +3662,25 @@
       <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20" t="s">
+      <c r="H17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="10" t="s">
         <v>86</v>
       </c>
       <c r="L17" t="s">
@@ -3653,7 +3694,7 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C18" t="s">
@@ -3662,25 +3703,25 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="20" t="s">
+      <c r="H18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="10" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
@@ -3694,7 +3735,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
@@ -3703,25 +3744,25 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="10" t="s">
         <v>92</v>
       </c>
       <c r="L19" t="s">
@@ -3735,7 +3776,7 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
@@ -3744,25 +3785,25 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="20" t="s">
+      <c r="H20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="10" t="s">
         <v>94</v>
       </c>
       <c r="L20" t="s">
@@ -3776,7 +3817,7 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
@@ -3785,25 +3826,25 @@
       <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="20" t="s">
+      <c r="H21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="5" t="s">
         <v>66</v>
       </c>
       <c r="L21" t="s">
@@ -3817,7 +3858,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
@@ -3826,25 +3867,25 @@
       <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="20" t="s">
+      <c r="H22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="10" t="s">
         <v>101</v>
       </c>
       <c r="L22" t="s">
@@ -3858,7 +3899,7 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
@@ -3867,25 +3908,25 @@
       <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="20" t="s">
+      <c r="H23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="5" t="s">
         <v>66</v>
       </c>
       <c r="L23" t="s">
@@ -3899,7 +3940,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
@@ -3908,25 +3949,25 @@
       <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="20" t="s">
+      <c r="H24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="L24" t="s">
@@ -3940,7 +3981,7 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
@@ -3949,25 +3990,25 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="20" t="s">
+      <c r="H25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="10" t="s">
         <v>53</v>
       </c>
       <c r="L25" t="s">
@@ -3981,7 +4022,7 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
@@ -3990,25 +4031,25 @@
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="20" t="s">
+      <c r="H26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="10" t="s">
         <v>112</v>
       </c>
       <c r="L26" t="s">
@@ -4022,7 +4063,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
@@ -4031,25 +4072,25 @@
       <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="20" t="s">
+      <c r="H27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="10" t="s">
         <v>116</v>
       </c>
       <c r="L27" t="s">
@@ -4063,7 +4104,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
@@ -4072,25 +4113,25 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="20" t="s">
+      <c r="H28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="10" t="s">
         <v>119</v>
       </c>
       <c r="L28" t="s">
@@ -4104,7 +4145,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
@@ -4113,25 +4154,25 @@
       <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="20" t="s">
+      <c r="H29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="10" t="s">
         <v>124</v>
       </c>
       <c r="L29" t="s">
@@ -4145,7 +4186,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -4154,25 +4195,25 @@
       <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="20" t="s">
+      <c r="H30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="10" t="s">
         <v>127</v>
       </c>
       <c r="L30" t="s">
@@ -4186,7 +4227,7 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
@@ -4195,25 +4236,25 @@
       <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="20" t="s">
+      <c r="H31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="10" t="s">
         <v>131</v>
       </c>
       <c r="L31" t="s">
@@ -4227,7 +4268,7 @@
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C32" t="s">
@@ -4236,25 +4277,25 @@
       <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="20" t="s">
+      <c r="H32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="10" t="s">
         <v>94</v>
       </c>
       <c r="L32" t="s">
@@ -4268,7 +4309,7 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>134</v>
       </c>
       <c r="C33" t="s">
@@ -4277,25 +4318,25 @@
       <c r="D33" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="20" t="s">
+      <c r="H33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="10" t="s">
         <v>138</v>
       </c>
       <c r="L33" t="s">
@@ -4309,34 +4350,34 @@
       <c r="A34" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>141</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="20" t="s">
+      <c r="H34" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="10" t="s">
         <v>34</v>
       </c>
       <c r="L34" t="s">
@@ -4350,34 +4391,34 @@
       <c r="A35" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="20" t="s">
+      <c r="H35" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="K35" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L35" t="s">
@@ -4391,34 +4432,34 @@
       <c r="A36" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>146</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="20" t="s">
+      <c r="H36" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="10" t="s">
         <v>148</v>
       </c>
       <c r="L36" t="s">
@@ -4432,34 +4473,34 @@
       <c r="A37" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="20" t="s">
+      <c r="H37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="K37" s="10" t="s">
         <v>151</v>
       </c>
       <c r="L37" t="s">
@@ -4473,34 +4514,34 @@
       <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>152</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="20" t="s">
+      <c r="H38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="18" t="s">
+      <c r="K38" s="10" t="s">
         <v>153</v>
       </c>
       <c r="L38" t="s">
@@ -4514,34 +4555,34 @@
       <c r="A39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="20" t="s">
+      <c r="H39" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="18" t="s">
+      <c r="K39" s="10" t="s">
         <v>155</v>
       </c>
       <c r="L39" t="s">
@@ -4555,34 +4596,34 @@
       <c r="A40" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="20" t="s">
+      <c r="H40" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K40" s="18" t="s">
+      <c r="K40" s="10" t="s">
         <v>158</v>
       </c>
       <c r="L40" t="s">
@@ -4596,34 +4637,34 @@
       <c r="A41" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="20" t="s">
+      <c r="H41" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="18" t="s">
+      <c r="K41" s="10" t="s">
         <v>138</v>
       </c>
       <c r="L41" t="s">
@@ -4637,34 +4678,34 @@
       <c r="A42" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>160</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="20" t="s">
+      <c r="H42" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="18" t="s">
+      <c r="K42" s="10" t="s">
         <v>161</v>
       </c>
       <c r="L42" t="s">
@@ -4678,34 +4719,34 @@
       <c r="A43" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="20" t="s">
+      <c r="H43" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L43" t="s">
@@ -4771,8 +4812,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
@@ -4782,1235 +4823,1235 @@
     <col min="7" max="7" width="60.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:14">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:14">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:14">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="5" customFormat="1" spans="1:14">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:14">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:14">
+      <c r="A3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>169</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:14">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:14">
+      <c r="A4" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>169</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:14">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="5" customFormat="1" spans="1:14">
+      <c r="A5" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>169</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:14">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="5" customFormat="1" spans="1:14">
+      <c r="A6" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:14">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="5" customFormat="1" spans="1:14">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:14">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="5" customFormat="1" spans="1:14">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:14">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="5" customFormat="1" spans="1:14">
+      <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:14">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="5" customFormat="1" spans="1:14">
+      <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" spans="1:14">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="5" customFormat="1" spans="1:14">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" spans="1:14">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="5" customFormat="1" spans="1:14">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" spans="1:14">
-      <c r="A13" s="8" t="s">
+    <row r="13" s="5" customFormat="1" spans="1:14">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" s="8" customFormat="1" spans="1:14">
-      <c r="A14" s="8" t="s">
+    <row r="14" s="5" customFormat="1" spans="1:14">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" spans="1:14">
-      <c r="A15" s="8" t="s">
+    <row r="15" s="5" customFormat="1" spans="1:14">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="1" spans="1:14">
-      <c r="A16" s="8" t="s">
+    <row r="16" s="5" customFormat="1" spans="1:14">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" spans="1:14">
-      <c r="A17" s="8" t="s">
+    <row r="17" s="5" customFormat="1" spans="1:14">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" spans="1:14">
-      <c r="A18" s="8" t="s">
+    <row r="18" s="5" customFormat="1" spans="1:14">
+      <c r="A18" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" spans="1:14">
-      <c r="A19" s="8" t="s">
+    <row r="19" s="5" customFormat="1" spans="1:14">
+      <c r="A19" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" spans="1:14">
-      <c r="A20" s="8" t="s">
+    <row r="20" s="5" customFormat="1" spans="1:14">
+      <c r="A20" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" spans="1:14">
-      <c r="A21" s="8" t="s">
+    <row r="21" s="5" customFormat="1" spans="1:14">
+      <c r="A21" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" spans="1:14">
-      <c r="A22" s="8" t="s">
+    <row r="22" s="5" customFormat="1" spans="1:14">
+      <c r="A22" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" spans="1:14">
-      <c r="A23" s="8" t="s">
+    <row r="23" s="5" customFormat="1" spans="1:14">
+      <c r="A23" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="24" s="8" customFormat="1" spans="1:14">
-      <c r="A24" s="8" t="s">
+    <row r="24" s="5" customFormat="1" spans="1:14">
+      <c r="A24" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="1" spans="1:14">
-      <c r="A25" s="8" t="s">
+    <row r="25" s="5" customFormat="1" spans="1:14">
+      <c r="A25" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" spans="1:14">
-      <c r="A26" s="8" t="s">
+    <row r="26" s="5" customFormat="1" spans="1:14">
+      <c r="A26" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N26" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" spans="1:14">
-      <c r="A27" s="8" t="s">
+    <row r="27" s="5" customFormat="1" spans="1:14">
+      <c r="A27" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="1" spans="1:14">
-      <c r="A28" s="8" t="s">
+    <row r="28" s="5" customFormat="1" spans="1:14">
+      <c r="A28" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="5" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6044,748 +6085,748 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.55555555555556" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.88888888888889" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.44444444444444" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.11111111111111" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.2222222222222" style="2" customWidth="1"/>
-    <col min="8" max="9" width="8.88888888888889" style="2"/>
-    <col min="10" max="10" width="14.2222222222222" style="2" customWidth="1"/>
-    <col min="11" max="11" width="46.8888888888889" style="2" customWidth="1"/>
-    <col min="12" max="12" width="59.6666666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.88888888888889" style="2"/>
-    <col min="14" max="14" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="10.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.55555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.11111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="73.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88888888888889" style="1"/>
+    <col min="10" max="10" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="12" width="59.6666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88888888888889" style="1"/>
+    <col min="14" max="14" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:14">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="129.6" spans="1:14">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>18800</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8800</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="4">
+        <v>22800</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10800</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:14">
+      <c r="A6" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="4">
+        <v>22800</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="4">
+        <v>11800</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20800</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10800</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9800</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5800</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="4">
+        <v>14300</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="H12" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" ht="100.8" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="3">
-        <v>8800</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="N12" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:14">
+      <c r="A13" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="4">
+        <v>14300</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="4">
+        <v>18800</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="4">
+        <v>21800</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10800</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D16" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="144" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="3">
-        <v>22800</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="144" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10800</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="187.2" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="3">
-        <v>22800</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="172.8" spans="1:14">
-      <c r="A7" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11800</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="144" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B8" s="3">
-        <v>20800</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="144" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10800</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="115.2" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9800</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="100.8" spans="1:14">
-      <c r="A11" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5800</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="115.2" spans="1:14">
-      <c r="A12" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B12" s="3">
-        <v>14300</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="115.2" spans="1:14">
-      <c r="A13" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B13" s="3">
-        <v>14300</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="144" spans="1:14">
-      <c r="A14" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" s="3">
-        <v>18800</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="129.6" spans="1:14">
-      <c r="A15" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="3">
-        <v>21800</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="115.2" spans="1:14">
-      <c r="A16" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10800</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>332</v>
+      <c r="G16" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G3" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G4" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G5" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G6" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G7" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G8" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G9" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G10" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G11" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G12" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G13" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G14" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G15" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G16" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/ceshi.png" tooltip="http://www.lanxiangren.net/static/logo/ceshi.png"/>
+    <hyperlink ref="G4" r:id="rId2" display="http://www.lanxiangren.net/static/logo/java.jpg" tooltip="http://www.lanxiangren.net/static/logo/java.jpg"/>
+    <hyperlink ref="G5" r:id="rId2" display="http://www.lanxiangren.net/static/logo/java.jpg" tooltip="http://www.lanxiangren.net/static/logo/java.jpg"/>
+    <hyperlink ref="G6" r:id="rId3" display="http://www.lanxiangren.net/static/logo/python.jpg" tooltip="http://www.lanxiangren.net/static/logo/python.jpg"/>
+    <hyperlink ref="G7" r:id="rId3" display="http://www.lanxiangren.net/static/logo/python.jpg" tooltip="http://www.lanxiangren.net/static/logo/python.jpg"/>
+    <hyperlink ref="G8" r:id="rId4" display="http://www.lanxiangren.net/static/logo/UI.jpg" tooltip="http://www.lanxiangren.net/static/logo/UI.jpg"/>
+    <hyperlink ref="G9" r:id="rId4" display="http://www.lanxiangren.net/static/logo/UI.jpg" tooltip="http://www.lanxiangren.net/static/logo/UI.jpg"/>
+    <hyperlink ref="G12" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G13" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G14" r:id="rId5" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G15" r:id="rId6" display="http://www.lanxiangren.net/static/logo/qianduan.png" tooltip="http://www.lanxiangren.net/static/logo/qianduan.png"/>
+    <hyperlink ref="G16" r:id="rId6" display="http://www.lanxiangren.net/static/logo/qianduan.png" tooltip="http://www.lanxiangren.net/static/logo/qianduan.png"/>
+    <hyperlink ref="G3" r:id="rId1" display="http://www.lanxiangren.net/static/logo/ceshi.png" tooltip="http://www.lanxiangren.net/static/logo/ceshi.png"/>
+    <hyperlink ref="G10" r:id="rId4" display="http://www.lanxiangren.net/static/logo/UI.jpg" tooltip="http://www.lanxiangren.net/static/logo/UI.jpg"/>
+    <hyperlink ref="G11" r:id="rId4" display="http://www.lanxiangren.net/static/logo/UI.jpg" tooltip="http://www.lanxiangren.net/static/logo/UI.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -6797,606 +6838,611 @@
   <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="6.88888888888889" customWidth="1"/>
-    <col min="3" max="3" width="6.33333333333333" customWidth="1"/>
-    <col min="8" max="8" width="6.11111111111111" customWidth="1"/>
-    <col min="10" max="10" width="23.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="34.5555555555556" customWidth="1"/>
-    <col min="12" max="12" width="54.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="3"/>
+    <col min="2" max="2" width="6.88888888888889" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.33333333333333" style="3" customWidth="1"/>
+    <col min="4" max="6" width="8.88888888888889" style="3"/>
+    <col min="7" max="7" width="53.1111111111111" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.11111111111111" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.88888888888889" style="3"/>
+    <col min="10" max="10" width="23.2222222222222" style="3" customWidth="1"/>
+    <col min="11" max="11" width="34.5555555555556" style="3" customWidth="1"/>
+    <col min="12" max="12" width="54.3333333333333" style="3" customWidth="1"/>
+    <col min="13" max="14" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="28.8" spans="1:14">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:14">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="129.6" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="4">
         <v>9000</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="4">
+        <v>11000</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" s="5">
+        <v>13000</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="129.6" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="B6" s="4">
+        <v>9000</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="4">
         <v>10000</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="4">
+        <v>11000</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="5">
+        <v>13000</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="129.6" spans="1:14">
-      <c r="A4" s="3" t="s">
+      <c r="B10" s="4">
+        <v>9000</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="3">
+      <c r="F10" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="4">
         <v>11000</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="C12" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" ht="129.6" spans="1:14">
-      <c r="A5" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="G12" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="5">
         <v>13000</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" ht="115.2" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" s="3">
-        <v>9000</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" ht="115.2" spans="1:14">
-      <c r="A7" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="8" ht="115.2" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B8" s="3">
-        <v>11000</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" ht="115.2" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" s="2">
-        <v>13000</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" ht="115.2" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" ht="115.2" spans="1:14">
-      <c r="A11" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" ht="115.2" spans="1:14">
-      <c r="A12" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" ht="115.2" spans="1:14">
-      <c r="A13" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B13" s="2">
-        <v>13000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>355</v>
+      <c r="K13" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G3" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G4" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G5" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G6" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G7" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G8" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G9" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G10" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G11" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G12" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
-    <hyperlink ref="G13" r:id="rId1" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="G2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/kuangda.jpg" tooltip="http://www.lanxiangren.net/static/logo/kuangda.jpg"/>
+    <hyperlink ref="G6" r:id="rId2" display="http://www.lanxiangren.net/static/logo/hunan.png" tooltip="http://www.lanxiangren.net/static/logo/hunan.png"/>
+    <hyperlink ref="G10" r:id="rId3" display="http://www.lanxiangren.net/static/logo/changsha.jpg" tooltip="http://www.lanxiangren.net/static/logo/changsha.jpg"/>
+    <hyperlink ref="G3" r:id="rId1" display="http://www.lanxiangren.net/static/logo/kuangda.jpg" tooltip="http://www.lanxiangren.net/static/logo/kuangda.jpg"/>
+    <hyperlink ref="G4" r:id="rId1" display="http://www.lanxiangren.net/static/logo/kuangda.jpg" tooltip="http://www.lanxiangren.net/static/logo/kuangda.jpg"/>
+    <hyperlink ref="G5" r:id="rId1" display="http://www.lanxiangren.net/static/logo/kuangda.jpg" tooltip="http://www.lanxiangren.net/static/logo/kuangda.jpg"/>
+    <hyperlink ref="G7" r:id="rId2" display="http://www.lanxiangren.net/static/logo/hunan.png" tooltip="http://www.lanxiangren.net/static/logo/hunan.png"/>
+    <hyperlink ref="G8" r:id="rId2" display="http://www.lanxiangren.net/static/logo/hunan.png" tooltip="http://www.lanxiangren.net/static/logo/hunan.png"/>
+    <hyperlink ref="G9" r:id="rId2" display="http://www.lanxiangren.net/static/logo/hunan.png" tooltip="http://www.lanxiangren.net/static/logo/hunan.png"/>
+    <hyperlink ref="G11" r:id="rId3" display="http://www.lanxiangren.net/static/logo/changsha.jpg" tooltip="http://www.lanxiangren.net/static/logo/changsha.jpg"/>
+    <hyperlink ref="G12" r:id="rId3" display="http://www.lanxiangren.net/static/logo/changsha.jpg" tooltip="http://www.lanxiangren.net/static/logo/changsha.jpg"/>
+    <hyperlink ref="G13" r:id="rId3" display="http://www.lanxiangren.net/static/logo/changsha.jpg" tooltip="http://www.lanxiangren.net/static/logo/changsha.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -7457,7 +7503,7 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -7476,381 +7522,110 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="B1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="81.4444444444444" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>230</v>
-      </c>
-      <c r="F21">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
+    <row r="1" spans="2:2">
+      <c r="B1" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="2:2">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22">
+    </row>
+    <row r="4" ht="72" spans="2:2">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F23">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F24">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>266</v>
+    </row>
+    <row r="5" ht="72" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="72" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="72" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="72" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="72" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="72" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="72" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="72" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="72" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="72" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://www.lanxiangren.net/static/logo/ceshi.png" tooltip="http://www.lanxiangren.net/static/logo/ceshi.png"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B5" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B6" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B7" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B8" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B9" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B10" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B11" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B12" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B13" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B14" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B15" r:id="rId2" display="http://www.lanxiangren.net/static/logo/LOGO.png" tooltip="http://www.lanxiangren.net/static/logo/LOGO.png"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.lanxiangren.net/static/logo/ceshi.png" tooltip="http://www.lanxiangren.net/static/logo/ceshi.png"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
